--- a/data/sample_finals.xlsx
+++ b/data/sample_finals.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angie\Documents\finals_test_prod\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71127A13-DC0B-469F-9FE8-284439B6A4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074B6C30-4836-4B56-B995-5023AE195251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="558">
   <si>
     <t>Subject</t>
   </si>
@@ -1609,21 +1622,6 @@
     <t>FNDMNTLS OF CONTROL</t>
   </si>
   <si>
-    <t>Thursday, December 12, 2024</t>
-  </si>
-  <si>
-    <t>Sunday, December 15, 2024</t>
-  </si>
-  <si>
-    <t>Friday, December 13, 2024</t>
-  </si>
-  <si>
-    <t>Monday, December 9, 2024</t>
-  </si>
-  <si>
-    <t>Tuesday, December 10, 2024</t>
-  </si>
-  <si>
     <t>BEST JAMES (jabest)</t>
   </si>
   <si>
@@ -1691,16 +1689,31 @@
   </si>
   <si>
     <t>Tepper School of Business</t>
+  </si>
+  <si>
+    <t>Sunday, December 15</t>
+  </si>
+  <si>
+    <t>Thursday, December 12</t>
+  </si>
+  <si>
+    <t>Monday, December 09</t>
+  </si>
+  <si>
+    <t>Tuesday, December 10</t>
+  </si>
+  <si>
+    <t>Friday, December 13</t>
+  </si>
+  <si>
+    <t>Monday, December 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1754,6 +1767,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1775,7 +1800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1787,43 +1812,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2129,17 +2145,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L351"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C327" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="I356" sqref="I356"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="F202" sqref="F202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.73046875" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.53125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="63.796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.19921875" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.1328125" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="31.86328125" style="3" customWidth="1"/>
@@ -2166,7 +2182,7 @@
       <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -2192,8 +2208,8 @@
       <c r="E2" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F2" s="5">
-        <v>45641</v>
+      <c r="F2" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
@@ -2221,8 +2237,8 @@
       <c r="E3" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F3" s="5">
-        <v>45638</v>
+      <c r="F3" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
@@ -2250,8 +2266,8 @@
       <c r="E4" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F4" s="5">
-        <v>45635</v>
+      <c r="F4" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -2279,8 +2295,8 @@
       <c r="E5" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F5" s="5">
-        <v>45641</v>
+      <c r="F5" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>3</v>
@@ -2308,8 +2324,8 @@
       <c r="E6" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F6" s="5">
-        <v>45638</v>
+      <c r="F6" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>3</v>
@@ -2337,8 +2353,8 @@
       <c r="E7" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F7" s="5">
-        <v>45641</v>
+      <c r="F7" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>3</v>
@@ -2366,8 +2382,8 @@
       <c r="E8" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F8" s="5">
-        <v>45636</v>
+      <c r="F8" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -2395,8 +2411,8 @@
       <c r="E9" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F9" s="5">
-        <v>45639</v>
+      <c r="F9" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -2424,8 +2440,8 @@
       <c r="E10" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F10" s="5">
-        <v>45636</v>
+      <c r="F10" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -2453,8 +2469,8 @@
       <c r="E11" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F11" s="5">
-        <v>45638</v>
+      <c r="F11" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>3</v>
@@ -2482,8 +2498,8 @@
       <c r="E12" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F12" s="5">
-        <v>45636</v>
+      <c r="F12" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
@@ -2508,8 +2524,8 @@
       <c r="E13" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F13" s="5">
-        <v>45639</v>
+      <c r="F13" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>3</v>
@@ -2534,8 +2550,8 @@
       <c r="E14" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F14" s="5">
-        <v>45638</v>
+      <c r="F14" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -2560,8 +2576,8 @@
       <c r="E15" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F15" s="5">
-        <v>45635</v>
+      <c r="F15" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -2586,8 +2602,8 @@
       <c r="E16" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F16" s="5">
-        <v>45636</v>
+      <c r="F16" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>3</v>
@@ -2612,8 +2628,8 @@
       <c r="E17" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F17" s="5">
-        <v>45639</v>
+      <c r="F17" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -2638,8 +2654,8 @@
       <c r="E18" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F18" s="5">
-        <v>45635</v>
+      <c r="F18" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -2664,8 +2680,8 @@
       <c r="E19" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F19" s="5">
-        <v>45639</v>
+      <c r="F19" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>3</v>
@@ -2690,8 +2706,8 @@
       <c r="E20" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F20" s="5">
-        <v>45639</v>
+      <c r="F20" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -2716,8 +2732,8 @@
       <c r="E21" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F21" s="5">
-        <v>45641</v>
+      <c r="F21" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -2742,8 +2758,8 @@
       <c r="E22" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F22" s="5">
-        <v>45641</v>
+      <c r="F22" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -2768,8 +2784,8 @@
       <c r="E23" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F23" s="5">
-        <v>45638</v>
+      <c r="F23" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G23" s="3">
         <v>1</v>
@@ -2794,8 +2810,8 @@
       <c r="E24" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F24" s="5">
-        <v>45639</v>
+      <c r="F24" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -2820,8 +2836,8 @@
       <c r="E25" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F25" s="5">
-        <v>45639</v>
+      <c r="F25" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>3</v>
@@ -2846,8 +2862,8 @@
       <c r="E26" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F26" s="5">
-        <v>45641</v>
+      <c r="F26" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G26" s="3">
         <v>1</v>
@@ -2872,8 +2888,8 @@
       <c r="E27" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F27" s="5">
-        <v>45636</v>
+      <c r="F27" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
@@ -2898,8 +2914,8 @@
       <c r="E28" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F28" s="5">
-        <v>45641</v>
+      <c r="F28" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>3</v>
@@ -2924,8 +2940,8 @@
       <c r="E29" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F29" s="5">
-        <v>45638</v>
+      <c r="F29" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -2950,8 +2966,8 @@
       <c r="E30" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F30" s="5">
-        <v>45639</v>
+      <c r="F30" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>3</v>
@@ -2976,8 +2992,8 @@
       <c r="E31" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F31" s="5">
-        <v>45635</v>
+      <c r="F31" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>3</v>
@@ -3002,8 +3018,8 @@
       <c r="E32" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F32" s="5">
-        <v>45641</v>
+      <c r="F32" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G32" s="3">
         <v>1</v>
@@ -3028,8 +3044,8 @@
       <c r="E33" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F33" s="5">
-        <v>45636</v>
+      <c r="F33" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -3054,8 +3070,8 @@
       <c r="E34" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F34" s="5">
-        <v>45635</v>
+      <c r="F34" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>3</v>
@@ -3080,8 +3096,8 @@
       <c r="E35" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F35" s="5">
-        <v>45639</v>
+      <c r="F35" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>4</v>
@@ -3106,8 +3122,8 @@
       <c r="E36" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F36" s="5">
-        <v>45641</v>
+      <c r="F36" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>3</v>
@@ -3132,8 +3148,8 @@
       <c r="E37" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F37" s="5">
-        <v>45639</v>
+      <c r="F37" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>3</v>
@@ -3158,8 +3174,8 @@
       <c r="E38" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F38" s="5">
-        <v>45636</v>
+      <c r="F38" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>3</v>
@@ -3184,8 +3200,8 @@
       <c r="E39" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F39" s="5">
-        <v>45638</v>
+      <c r="F39" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>3</v>
@@ -3210,8 +3226,8 @@
       <c r="E40" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F40" s="5">
-        <v>45641</v>
+      <c r="F40" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>3</v>
@@ -3236,8 +3252,8 @@
       <c r="E41" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F41" s="5">
-        <v>45641</v>
+      <c r="F41" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>4</v>
@@ -3262,8 +3278,8 @@
       <c r="E42" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F42" s="5">
-        <v>45639</v>
+      <c r="F42" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -3288,8 +3304,8 @@
       <c r="E43" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F43" s="5">
-        <v>45639</v>
+      <c r="F43" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -3314,8 +3330,8 @@
       <c r="E44" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F44" s="5">
-        <v>45639</v>
+      <c r="F44" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>495</v>
@@ -3340,8 +3356,8 @@
       <c r="E45" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F45" s="5">
-        <v>45635</v>
+      <c r="F45" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
@@ -3366,8 +3382,8 @@
       <c r="E46" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F46" s="5">
-        <v>45635</v>
+      <c r="F46" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G46" s="3">
         <v>2</v>
@@ -3392,8 +3408,8 @@
       <c r="E47" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F47" s="5">
-        <v>45635</v>
+      <c r="F47" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G47" s="3">
         <v>3</v>
@@ -3418,8 +3434,8 @@
       <c r="E48" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F48" s="5">
-        <v>45635</v>
+      <c r="F48" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G48" s="3">
         <v>4</v>
@@ -3444,8 +3460,8 @@
       <c r="E49" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F49" s="5">
-        <v>45641</v>
+      <c r="F49" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
@@ -3470,8 +3486,8 @@
       <c r="E50" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F50" s="5">
-        <v>45641</v>
+      <c r="F50" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G50" s="3">
         <v>1</v>
@@ -3496,8 +3512,8 @@
       <c r="E51" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F51" s="5">
-        <v>45641</v>
+      <c r="F51" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>3</v>
@@ -3522,8 +3538,8 @@
       <c r="E52" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F52" s="5">
-        <v>45641</v>
+      <c r="F52" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -3548,8 +3564,8 @@
       <c r="E53" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F53" s="5">
-        <v>45641</v>
+      <c r="F53" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>495</v>
@@ -3574,8 +3590,8 @@
       <c r="E54" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F54" s="5">
-        <v>45636</v>
+      <c r="F54" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -3600,8 +3616,8 @@
       <c r="E55" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F55" s="5">
-        <v>45641</v>
+      <c r="F55" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>3</v>
@@ -3626,8 +3642,8 @@
       <c r="E56" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F56" s="5">
-        <v>45639</v>
+      <c r="F56" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>3</v>
@@ -3652,8 +3668,8 @@
       <c r="E57" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F57" s="5">
-        <v>45639</v>
+      <c r="F57" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
@@ -3678,8 +3694,8 @@
       <c r="E58" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F58" s="5">
-        <v>45636</v>
+      <c r="F58" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -3704,8 +3720,8 @@
       <c r="E59" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F59" s="5">
-        <v>45638</v>
+      <c r="F59" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -3730,8 +3746,8 @@
       <c r="E60" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F60" s="5">
-        <v>45636</v>
+      <c r="F60" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>4</v>
@@ -3756,8 +3772,8 @@
       <c r="E61" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F61" s="5">
-        <v>45639</v>
+      <c r="F61" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>3</v>
@@ -3782,8 +3798,8 @@
       <c r="E62" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F62" s="5">
-        <v>45635</v>
+      <c r="F62" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -3808,8 +3824,8 @@
       <c r="E63" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F63" s="5">
-        <v>45635</v>
+      <c r="F63" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>3</v>
@@ -3834,8 +3850,8 @@
       <c r="E64" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F64" s="5">
-        <v>45638</v>
+      <c r="F64" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>3</v>
@@ -3860,8 +3876,8 @@
       <c r="E65" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F65" s="5">
-        <v>45639</v>
+      <c r="F65" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G65" s="3">
         <v>1</v>
@@ -3886,8 +3902,8 @@
       <c r="E66" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F66" s="5">
-        <v>45639</v>
+      <c r="F66" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -3912,8 +3928,8 @@
       <c r="E67" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F67" s="5">
-        <v>45636</v>
+      <c r="F67" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>3</v>
@@ -3938,8 +3954,8 @@
       <c r="E68" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F68" s="5">
-        <v>45635</v>
+      <c r="F68" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>3</v>
@@ -3964,8 +3980,8 @@
       <c r="E69" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F69" s="5">
-        <v>45638</v>
+      <c r="F69" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>496</v>
@@ -3990,8 +4006,8 @@
       <c r="E70" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F70" s="5">
-        <v>45636</v>
+      <c r="F70" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G70" s="3">
         <v>1</v>
@@ -4016,8 +4032,8 @@
       <c r="E71" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F71" s="5">
-        <v>45641</v>
+      <c r="F71" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>3</v>
@@ -4042,8 +4058,8 @@
       <c r="E72" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F72" s="5">
-        <v>45639</v>
+      <c r="F72" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -4068,8 +4084,8 @@
       <c r="E73" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F73" s="5">
-        <v>45635</v>
+      <c r="F73" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>3</v>
@@ -4094,8 +4110,8 @@
       <c r="E74" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F74" s="5">
-        <v>45635</v>
+      <c r="F74" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>3</v>
@@ -4120,8 +4136,8 @@
       <c r="E75" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F75" s="5">
-        <v>45638</v>
+      <c r="F75" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>3</v>
@@ -4146,8 +4162,8 @@
       <c r="E76" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F76" s="5">
-        <v>45641</v>
+      <c r="F76" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>496</v>
@@ -4172,8 +4188,8 @@
       <c r="E77" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F77" s="5">
-        <v>45639</v>
+      <c r="F77" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G77" s="3">
         <v>1</v>
@@ -4198,8 +4214,8 @@
       <c r="E78" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F78" s="5">
-        <v>45638</v>
+      <c r="F78" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G78" s="3">
         <v>1</v>
@@ -4224,8 +4240,8 @@
       <c r="E79" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F79" s="5">
-        <v>45639</v>
+      <c r="F79" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G79" s="3">
         <v>1</v>
@@ -4250,8 +4266,8 @@
       <c r="E80" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F80" s="5">
-        <v>45641</v>
+      <c r="F80" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G80" s="3">
         <v>1</v>
@@ -4276,8 +4292,8 @@
       <c r="E81" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F81" s="5">
-        <v>45635</v>
+      <c r="F81" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G81" s="3">
         <v>1</v>
@@ -4302,8 +4318,8 @@
       <c r="E82" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F82" s="5">
-        <v>45638</v>
+      <c r="F82" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G82" s="3">
         <v>1</v>
@@ -4328,8 +4344,8 @@
       <c r="E83" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F83" s="5">
-        <v>45639</v>
+      <c r="F83" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G83" s="3">
         <v>1</v>
@@ -4354,8 +4370,8 @@
       <c r="E84" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F84" s="5">
-        <v>45638</v>
+      <c r="F84" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G84" s="3">
         <v>1</v>
@@ -4380,8 +4396,8 @@
       <c r="E85" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F85" s="5">
-        <v>45639</v>
+      <c r="F85" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>3</v>
@@ -4406,8 +4422,8 @@
       <c r="E86" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F86" s="5">
-        <v>45639</v>
+      <c r="F86" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>3</v>
@@ -4432,8 +4448,8 @@
       <c r="E87" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F87" s="5">
-        <v>45639</v>
+      <c r="F87" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>3</v>
@@ -4458,8 +4474,8 @@
       <c r="E88" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F88" s="5">
-        <v>45635</v>
+      <c r="F88" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>3</v>
@@ -4484,8 +4500,8 @@
       <c r="E89" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F89" s="5">
-        <v>45639</v>
+      <c r="F89" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -4510,8 +4526,8 @@
       <c r="E90" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F90" s="5">
-        <v>45639</v>
+      <c r="F90" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>4</v>
@@ -4536,8 +4552,8 @@
       <c r="E91" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F91" s="5">
-        <v>45639</v>
+      <c r="F91" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>495</v>
@@ -4562,8 +4578,8 @@
       <c r="E92" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F92" s="5">
-        <v>45636</v>
+      <c r="F92" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>3</v>
@@ -4588,8 +4604,8 @@
       <c r="E93" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F93" s="5">
-        <v>45639</v>
+      <c r="F93" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>3</v>
@@ -4614,8 +4630,8 @@
       <c r="E94" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F94" s="5">
-        <v>45635</v>
+      <c r="F94" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -4640,8 +4656,8 @@
       <c r="E95" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F95" s="5">
-        <v>45636</v>
+      <c r="F95" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>3</v>
@@ -4666,8 +4682,8 @@
       <c r="E96" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F96" s="5">
-        <v>45641</v>
+      <c r="F96" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>3</v>
@@ -4692,8 +4708,8 @@
       <c r="E97" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F97" s="5">
-        <v>45636</v>
+      <c r="F97" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>3</v>
@@ -4718,8 +4734,8 @@
       <c r="E98" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F98" s="5">
-        <v>45639</v>
+      <c r="F98" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>3</v>
@@ -4744,8 +4760,8 @@
       <c r="E99" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F99" s="5">
-        <v>45638</v>
+      <c r="F99" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>496</v>
@@ -4770,8 +4786,8 @@
       <c r="E100" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F100" s="5">
-        <v>45639</v>
+      <c r="F100" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -4796,8 +4812,8 @@
       <c r="E101" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F101" s="5">
-        <v>45635</v>
+      <c r="F101" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -4822,8 +4838,8 @@
       <c r="E102" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F102" s="5">
-        <v>45635</v>
+      <c r="F102" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G102" s="3">
         <v>1</v>
@@ -4848,8 +4864,8 @@
       <c r="E103" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F103" s="5">
-        <v>45638</v>
+      <c r="F103" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>3</v>
@@ -4874,8 +4890,8 @@
       <c r="E104" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F104" s="5">
-        <v>45638</v>
+      <c r="F104" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>3</v>
@@ -4900,8 +4916,8 @@
       <c r="E105" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F105" s="5">
-        <v>45639</v>
+      <c r="F105" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G105" s="3">
         <v>1</v>
@@ -4926,8 +4942,8 @@
       <c r="E106" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F106" s="5">
-        <v>45638</v>
+      <c r="F106" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G106" s="3">
         <v>1</v>
@@ -4952,8 +4968,8 @@
       <c r="E107" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F107" s="5">
-        <v>45638</v>
+      <c r="F107" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>3</v>
@@ -4978,8 +4994,8 @@
       <c r="E108" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F108" s="5">
-        <v>45641</v>
+      <c r="F108" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>3</v>
@@ -5004,8 +5020,8 @@
       <c r="E109" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F109" s="5">
-        <v>45638</v>
+      <c r="F109" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>3</v>
@@ -5030,8 +5046,8 @@
       <c r="E110" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F110" s="5">
-        <v>45635</v>
+      <c r="F110" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G110" s="3">
         <v>1</v>
@@ -5056,8 +5072,8 @@
       <c r="E111" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F111" s="5">
-        <v>45635</v>
+      <c r="F111" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G111" s="3">
         <v>1</v>
@@ -5082,8 +5098,8 @@
       <c r="E112" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F112" s="5">
-        <v>45635</v>
+      <c r="F112" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G112" s="3">
         <v>2</v>
@@ -5108,8 +5124,8 @@
       <c r="E113" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F113" s="5">
-        <v>45635</v>
+      <c r="F113" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G113" s="3">
         <v>1</v>
@@ -5134,8 +5150,8 @@
       <c r="E114" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F114" s="5">
-        <v>45635</v>
+      <c r="F114" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G114" s="3">
         <v>2</v>
@@ -5160,8 +5176,8 @@
       <c r="E115" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F115" s="5">
-        <v>45641</v>
+      <c r="F115" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G115" s="3">
         <v>1</v>
@@ -5186,8 +5202,8 @@
       <c r="E116" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F116" s="5">
-        <v>45635</v>
+      <c r="F116" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G116" s="3">
         <v>1</v>
@@ -5212,8 +5228,8 @@
       <c r="E117" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F117" s="5">
-        <v>45635</v>
+      <c r="F117" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G117" s="3">
         <v>2</v>
@@ -5238,8 +5254,8 @@
       <c r="E118" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F118" s="5">
-        <v>45639</v>
+      <c r="F118" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G118" s="3">
         <v>1</v>
@@ -5264,8 +5280,8 @@
       <c r="E119" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F119" s="5">
-        <v>45636</v>
+      <c r="F119" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G119" s="3">
         <v>1</v>
@@ -5290,8 +5306,8 @@
       <c r="E120" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F120" s="5">
-        <v>45636</v>
+      <c r="F120" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G120" s="3">
         <v>1</v>
@@ -5316,8 +5332,8 @@
       <c r="E121" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F121" s="5">
-        <v>45636</v>
+      <c r="F121" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G121" s="3">
         <v>2</v>
@@ -5342,8 +5358,8 @@
       <c r="E122" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F122" s="5">
-        <v>45638</v>
+      <c r="F122" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G122" s="3">
         <v>1</v>
@@ -5368,8 +5384,8 @@
       <c r="E123" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F123" s="5">
-        <v>45635</v>
+      <c r="F123" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G123" s="3">
         <v>1</v>
@@ -5394,8 +5410,8 @@
       <c r="E124" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F124" s="5">
-        <v>45638</v>
+      <c r="F124" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>3</v>
@@ -5420,8 +5436,8 @@
       <c r="E125" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F125" s="5">
-        <v>45638</v>
+      <c r="F125" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G125" s="3">
         <v>1</v>
@@ -5446,8 +5462,8 @@
       <c r="E126" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F126" s="5">
-        <v>45641</v>
+      <c r="F126" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G126" s="3">
         <v>1</v>
@@ -5472,8 +5488,8 @@
       <c r="E127" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F127" s="5">
-        <v>45635</v>
+      <c r="F127" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G127" s="3">
         <v>1</v>
@@ -5498,8 +5514,8 @@
       <c r="E128" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F128" s="5">
-        <v>45639</v>
+      <c r="F128" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G128" s="3">
         <v>1</v>
@@ -5524,8 +5540,8 @@
       <c r="E129" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F129" s="5">
-        <v>45638</v>
+      <c r="F129" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>3</v>
@@ -5550,8 +5566,8 @@
       <c r="E130" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F130" s="5">
-        <v>45641</v>
+      <c r="F130" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>3</v>
@@ -5576,8 +5592,8 @@
       <c r="E131" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F131" s="5">
-        <v>45635</v>
+      <c r="F131" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G131" s="3">
         <v>1</v>
@@ -5602,8 +5618,8 @@
       <c r="E132" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F132" s="5">
-        <v>45639</v>
+      <c r="F132" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G132" s="3">
         <v>1</v>
@@ -5628,8 +5644,8 @@
       <c r="E133" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F133" s="5">
-        <v>45638</v>
+      <c r="F133" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>3</v>
@@ -5654,8 +5670,8 @@
       <c r="E134" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F134" s="5">
-        <v>45641</v>
+      <c r="F134" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G134" s="3">
         <v>1</v>
@@ -5680,8 +5696,8 @@
       <c r="E135" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F135" s="5">
-        <v>45638</v>
+      <c r="F135" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G135" s="3">
         <v>1</v>
@@ -5706,8 +5722,8 @@
       <c r="E136" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F136" s="5">
-        <v>45641</v>
+      <c r="F136" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>3</v>
@@ -5732,8 +5748,8 @@
       <c r="E137" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F137" s="5">
-        <v>45638</v>
+      <c r="F137" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>3</v>
@@ -5758,8 +5774,8 @@
       <c r="E138" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F138" s="5">
-        <v>45639</v>
+      <c r="F138" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>3</v>
@@ -5784,8 +5800,8 @@
       <c r="E139" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F139" s="5">
-        <v>45635</v>
+      <c r="F139" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G139" s="3">
         <v>1</v>
@@ -5810,8 +5826,8 @@
       <c r="E140" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F140" s="5">
-        <v>45635</v>
+      <c r="F140" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G140" s="3">
         <v>1</v>
@@ -5836,8 +5852,8 @@
       <c r="E141" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F141" s="5">
-        <v>45639</v>
+      <c r="F141" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>3</v>
@@ -5862,8 +5878,8 @@
       <c r="E142" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F142" s="5">
-        <v>45636</v>
+      <c r="F142" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G142" s="3">
         <v>1</v>
@@ -5888,8 +5904,8 @@
       <c r="E143" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F143" s="5">
-        <v>45639</v>
+      <c r="F143" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>3</v>
@@ -5914,8 +5930,8 @@
       <c r="E144" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F144" s="5">
-        <v>45638</v>
+      <c r="F144" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>3</v>
@@ -5940,8 +5956,8 @@
       <c r="E145" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F145" s="5">
-        <v>45639</v>
+      <c r="F145" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>3</v>
@@ -5966,8 +5982,8 @@
       <c r="E146" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F146" s="5">
-        <v>45641</v>
+      <c r="F146" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>3</v>
@@ -5992,8 +6008,8 @@
       <c r="E147" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F147" s="5">
-        <v>45636</v>
+      <c r="F147" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>3</v>
@@ -6018,8 +6034,8 @@
       <c r="E148" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F148" s="5">
-        <v>45638</v>
+      <c r="F148" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>3</v>
@@ -6044,8 +6060,8 @@
       <c r="E149" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F149" s="5">
-        <v>45638</v>
+      <c r="F149" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G149" s="3">
         <v>1</v>
@@ -6070,8 +6086,8 @@
       <c r="E150" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F150" s="5">
-        <v>45638</v>
+      <c r="F150" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>3</v>
@@ -6096,8 +6112,8 @@
       <c r="E151" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F151" s="5">
-        <v>45639</v>
+      <c r="F151" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>3</v>
@@ -6122,8 +6138,8 @@
       <c r="E152" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F152" s="5">
-        <v>45641</v>
+      <c r="F152" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>3</v>
@@ -6148,8 +6164,8 @@
       <c r="E153" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F153" s="5">
-        <v>45635</v>
+      <c r="F153" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G153" s="3">
         <v>1</v>
@@ -6174,8 +6190,8 @@
       <c r="E154" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F154" s="5">
-        <v>45635</v>
+      <c r="F154" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G154" s="3">
         <v>1</v>
@@ -6200,8 +6216,8 @@
       <c r="E155" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F155" s="5">
-        <v>45639</v>
+      <c r="F155" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>3</v>
@@ -6226,8 +6242,8 @@
       <c r="E156" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F156" s="5">
-        <v>45639</v>
+      <c r="F156" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G156" s="3">
         <v>1</v>
@@ -6252,8 +6268,8 @@
       <c r="E157" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F157" s="5">
-        <v>45636</v>
+      <c r="F157" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G157" s="3">
         <v>1</v>
@@ -6278,8 +6294,8 @@
       <c r="E158" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F158" s="5">
-        <v>45635</v>
+      <c r="F158" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G158" s="3">
         <v>1</v>
@@ -6304,8 +6320,8 @@
       <c r="E159" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F159" s="5">
-        <v>45639</v>
+      <c r="F159" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G159" s="3">
         <v>1</v>
@@ -6330,8 +6346,8 @@
       <c r="E160" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F160" s="5">
-        <v>45641</v>
+      <c r="F160" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G160" s="3">
         <v>1</v>
@@ -6356,8 +6372,8 @@
       <c r="E161" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F161" s="5">
-        <v>45638</v>
+      <c r="F161" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G161" s="3">
         <v>1</v>
@@ -6382,8 +6398,8 @@
       <c r="E162" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F162" s="5">
-        <v>45638</v>
+      <c r="F162" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>3</v>
@@ -6408,8 +6424,8 @@
       <c r="E163" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F163" s="5">
-        <v>45641</v>
+      <c r="F163" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>3</v>
@@ -6434,8 +6450,8 @@
       <c r="E164" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F164" s="5">
-        <v>45639</v>
+      <c r="F164" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>3</v>
@@ -6460,8 +6476,8 @@
       <c r="E165" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F165" s="5">
-        <v>45635</v>
+      <c r="F165" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>3</v>
@@ -6486,8 +6502,8 @@
       <c r="E166" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F166" s="5">
-        <v>45636</v>
+      <c r="F166" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>497</v>
@@ -6497,13 +6513,13 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A167" s="10">
+      <c r="A167" s="3">
         <v>15826</v>
       </c>
-      <c r="B167" s="10" t="s">
+      <c r="B167" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C167" s="10" t="s">
+      <c r="C167" s="3" t="s">
         <v>381</v>
       </c>
       <c r="D167" s="3" t="s">
@@ -6512,8 +6528,8 @@
       <c r="E167" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F167" s="5">
-        <v>45635</v>
+      <c r="F167" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>3</v>
@@ -6523,13 +6539,13 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A168" s="10">
+      <c r="A168" s="3">
         <v>15856</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B168" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C168" s="10" t="s">
+      <c r="C168" s="3" t="s">
         <v>363</v>
       </c>
       <c r="D168" s="3" t="s">
@@ -6538,8 +6554,8 @@
       <c r="E168" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F168" s="5">
-        <v>45638</v>
+      <c r="F168" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>3</v>
@@ -6549,13 +6565,13 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A169" s="10">
+      <c r="A169" s="3">
         <v>15860</v>
       </c>
-      <c r="B169" s="10" t="s">
+      <c r="B169" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C169" s="10" t="s">
+      <c r="C169" s="3" t="s">
         <v>361</v>
       </c>
       <c r="D169" s="3" t="s">
@@ -6564,8 +6580,8 @@
       <c r="E169" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F169" s="5">
-        <v>45641</v>
+      <c r="F169" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>3</v>
@@ -6575,13 +6591,13 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A170" s="10">
+      <c r="A170" s="3">
         <v>15862</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B170" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C170" s="10" t="s">
+      <c r="C170" s="3" t="s">
         <v>374</v>
       </c>
       <c r="D170" s="3" t="s">
@@ -6590,8 +6606,8 @@
       <c r="E170" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F170" s="5">
-        <v>45638</v>
+      <c r="F170" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>3</v>
@@ -6601,13 +6617,13 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A171" s="10">
+      <c r="A171" s="3">
         <v>15890</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="B171" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="C171" s="3" t="s">
         <v>382</v>
       </c>
       <c r="D171" s="3" t="s">
@@ -6616,8 +6632,8 @@
       <c r="E171" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F171" s="5">
-        <v>45636</v>
+      <c r="F171" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>3</v>
@@ -6627,13 +6643,13 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A172" s="10">
+      <c r="A172" s="3">
         <v>65200</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="3" t="s">
         <v>383</v>
       </c>
       <c r="D172" s="3" t="s">
@@ -6642,8 +6658,8 @@
       <c r="E172" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F172" s="5">
-        <v>45641</v>
+      <c r="F172" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>3</v>
@@ -6653,13 +6669,13 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A173" s="10">
+      <c r="A173" s="3">
         <v>66148</v>
       </c>
-      <c r="B173" s="10" t="s">
+      <c r="B173" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C173" s="10" t="s">
+      <c r="C173" s="3" t="s">
         <v>384</v>
       </c>
       <c r="D173" s="3" t="s">
@@ -6668,8 +6684,8 @@
       <c r="E173" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F173" s="5">
-        <v>45641</v>
+      <c r="F173" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>3</v>
@@ -6679,13 +6695,13 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A174" s="10">
+      <c r="A174" s="3">
         <v>66221</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="B174" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C174" s="10" t="s">
+      <c r="C174" s="3" t="s">
         <v>385</v>
       </c>
       <c r="D174" s="3" t="s">
@@ -6694,8 +6710,8 @@
       <c r="E174" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F174" s="5">
-        <v>45641</v>
+      <c r="F174" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>3</v>
@@ -6704,639 +6720,639 @@
         <v>510</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="27" x14ac:dyDescent="0.45">
-      <c r="A175" s="10">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A175" s="3">
         <v>54461</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C175" s="13" t="s">
+      <c r="C175" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="D175" s="13" t="s">
+      <c r="D175" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="E175" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F175" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="G175" s="10" t="s">
+      <c r="E175" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F175" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="G175" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H175" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="27" x14ac:dyDescent="0.45">
-      <c r="A176" s="10">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A176" s="3">
         <v>54461</v>
       </c>
-      <c r="B176" s="14" t="s">
+      <c r="B176" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="C176" s="13" t="s">
+      <c r="C176" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="D176" s="13" t="s">
+      <c r="D176" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="E176" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F176" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="G176" s="10" t="s">
+      <c r="E176" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F176" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="G176" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H176" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="40.5" x14ac:dyDescent="0.45">
-      <c r="A177" s="14">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A177" s="10">
         <v>73102</v>
       </c>
-      <c r="B177" s="10" t="s">
+      <c r="B177" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C177" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="D177" s="13" t="s">
+      <c r="C177" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="D177" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="E177" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F177" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="G177" s="10">
+      <c r="E177" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F177" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="G177" s="3">
         <v>1</v>
       </c>
       <c r="H177" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="40.5" x14ac:dyDescent="0.45">
-      <c r="A178" s="14">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A178" s="10">
         <v>73102</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C178" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="D178" s="13" t="s">
+      <c r="C178" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="D178" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="E178" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F178" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="G178" s="10">
+      <c r="E178" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F178" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="G178" s="3">
         <v>2</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="40.5" x14ac:dyDescent="0.45">
-      <c r="A179" s="14">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A179" s="10">
         <v>73103</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B179" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="C179" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="D179" s="13" t="s">
+      <c r="C179" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="D179" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="E179" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F179" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="G179" s="10">
+      <c r="E179" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F179" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="G179" s="3">
         <v>1</v>
       </c>
       <c r="H179" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="40.5" x14ac:dyDescent="0.45">
-      <c r="A180" s="14">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A180" s="10">
         <v>73104</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C180" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="D180" s="13" t="s">
+      <c r="C180" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D180" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="E180" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F180" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="G180" s="10">
+      <c r="E180" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F180" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="G180" s="3">
         <v>1</v>
       </c>
       <c r="H180" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="40.5" x14ac:dyDescent="0.45">
-      <c r="A181" s="14">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A181" s="10">
         <v>73374</v>
       </c>
-      <c r="B181" s="14" t="s">
+      <c r="B181" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="C181" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="D181" s="13" t="s">
+      <c r="C181" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="D181" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="E181" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F181" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="G181" s="10" t="s">
+      <c r="E181" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F181" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="G181" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H181" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="40.5" x14ac:dyDescent="0.45">
-      <c r="A182" s="14">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A182" s="10">
         <v>73421</v>
       </c>
-      <c r="B182" s="14" t="s">
+      <c r="B182" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="C182" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="D182" s="13" t="s">
+      <c r="C182" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="D182" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="E182" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F182" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="G182" s="10" t="s">
+      <c r="E182" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F182" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="G182" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H182" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="40.5" x14ac:dyDescent="0.45">
-      <c r="A183" s="14">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A183" s="10">
         <v>73497</v>
       </c>
-      <c r="B183" s="14" t="s">
+      <c r="B183" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="C183" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="D183" s="13" t="s">
+      <c r="C183" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="D183" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="E183" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F183" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="G183" s="10" t="s">
+      <c r="E183" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F183" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="G183" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H183" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="27" x14ac:dyDescent="0.45">
-      <c r="A184" s="14">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A184" s="10">
         <v>18095</v>
       </c>
-      <c r="B184" s="14" t="s">
+      <c r="B184" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="C184" s="12" t="s">
+      <c r="C184" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F184" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A185" s="10">
+        <v>18095</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F185" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A186" s="10">
+        <v>18100</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F186" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="G186" s="3">
+        <v>1</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A187" s="10">
+        <v>18202</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F187" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="G187" s="3">
+        <v>1</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A188" s="10">
+        <v>18213</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F188" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="G188" s="9">
+        <v>1</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A189" s="10">
+        <v>18220</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F189" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="G189" s="9">
+        <v>1</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A190" s="10">
+        <v>18240</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F190" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="G190" s="9">
+        <v>1</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A191" s="10">
+        <v>18290</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="C191" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="D184" s="13" t="s">
+      <c r="D191" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F191" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="G191" s="9">
+        <v>1</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A192" s="10">
+        <v>18300</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F192" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="G192" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A193" s="10">
+        <v>18320</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F193" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="G193" s="9">
+        <v>1</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A194" s="10">
+        <v>18340</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D194" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="E184" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F184" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="G184" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H184" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="27" x14ac:dyDescent="0.45">
-      <c r="A185" s="14">
-        <v>18095</v>
-      </c>
-      <c r="B185" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="C185" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="D185" s="13" t="s">
+      <c r="E194" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F194" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="G194" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A195" s="10">
+        <v>18340</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D195" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="E185" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F185" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="G185" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H185" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="27" x14ac:dyDescent="0.45">
-      <c r="A186" s="14">
-        <v>18100</v>
-      </c>
-      <c r="B186" s="14" t="s">
-        <v>519</v>
-      </c>
-      <c r="C186" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="D186" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="E186" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F186" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="G186" s="10">
+      <c r="E195" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F195" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="G195" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A196" s="10">
+        <v>18349</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F196" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="G196" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A197" s="10">
+        <v>18370</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F197" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="G197" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A198" s="5">
+        <v>18384</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="F198" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="G198" s="5">
         <v>1</v>
       </c>
-      <c r="H186" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="27" x14ac:dyDescent="0.45">
-      <c r="A187" s="14">
-        <v>18202</v>
-      </c>
-      <c r="B187" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="C187" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="D187" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="E187" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F187" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="G187" s="10">
-        <v>1</v>
-      </c>
-      <c r="H187" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="27" x14ac:dyDescent="0.45">
-      <c r="A188" s="14">
-        <v>18213</v>
-      </c>
-      <c r="B188" s="14" t="s">
-        <v>521</v>
-      </c>
-      <c r="C188" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="D188" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="E188" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F188" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="G188" s="13">
-        <v>1</v>
-      </c>
-      <c r="H188" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="40.5" x14ac:dyDescent="0.45">
-      <c r="A189" s="14">
-        <v>18220</v>
-      </c>
-      <c r="B189" s="14" t="s">
-        <v>522</v>
-      </c>
-      <c r="C189" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="D189" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="E189" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F189" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="G189" s="13">
-        <v>1</v>
-      </c>
-      <c r="H189" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="40.5" x14ac:dyDescent="0.45">
-      <c r="A190" s="14">
-        <v>18240</v>
-      </c>
-      <c r="B190" s="14" t="s">
-        <v>523</v>
-      </c>
-      <c r="C190" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="D190" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="E190" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F190" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="G190" s="13">
-        <v>1</v>
-      </c>
-      <c r="H190" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="27" x14ac:dyDescent="0.45">
-      <c r="A191" s="14">
-        <v>18290</v>
-      </c>
-      <c r="B191" s="14" t="s">
-        <v>524</v>
-      </c>
-      <c r="C191" s="12" t="s">
+      <c r="H198" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="D191" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="E191" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F191" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="G191" s="13">
-        <v>1</v>
-      </c>
-      <c r="H191" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="40.5" x14ac:dyDescent="0.45">
-      <c r="A192" s="14">
-        <v>18300</v>
-      </c>
-      <c r="B192" s="14" t="s">
-        <v>525</v>
-      </c>
-      <c r="C192" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="D192" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="E192" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F192" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="G192" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H192" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="27" x14ac:dyDescent="0.45">
-      <c r="A193" s="14">
-        <v>18320</v>
-      </c>
-      <c r="B193" s="14" t="s">
-        <v>526</v>
-      </c>
-      <c r="C193" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="D193" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="E193" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F193" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="G193" s="13">
-        <v>1</v>
-      </c>
-      <c r="H193" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="27" x14ac:dyDescent="0.45">
-      <c r="A194" s="14">
-        <v>18340</v>
-      </c>
-      <c r="B194" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C194" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="D194" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="E194" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F194" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="G194" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="H194" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="27" x14ac:dyDescent="0.45">
-      <c r="A195" s="14">
-        <v>18340</v>
-      </c>
-      <c r="B195" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C195" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="D195" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="E195" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F195" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="G195" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="H195" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" ht="40.5" x14ac:dyDescent="0.45">
-      <c r="A196" s="14">
-        <v>18349</v>
-      </c>
-      <c r="B196" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="C196" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="D196" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="E196" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F196" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="G196" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H196" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="40.5" x14ac:dyDescent="0.45">
-      <c r="A197" s="14">
-        <v>18370</v>
-      </c>
-      <c r="B197" s="14" t="s">
-        <v>528</v>
-      </c>
-      <c r="C197" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="D197" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="E197" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F197" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="G197" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H197" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A198" s="6">
-        <v>18384</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="D198" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="E198" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="F198" s="8">
-        <v>45641</v>
-      </c>
-      <c r="G198" s="6">
-        <v>1</v>
-      </c>
-      <c r="H198" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="I198" s="6"/>
+      <c r="I198" s="3"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A199" s="10">
+      <c r="A199" s="3">
         <v>18422</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="B199" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C199" s="10" t="s">
+      <c r="C199" s="3" t="s">
         <v>387</v>
       </c>
       <c r="D199" s="3" t="s">
@@ -7345,14 +7361,14 @@
       <c r="E199" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F199" s="5">
-        <v>45638</v>
+      <c r="F199" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G199" s="3">
         <v>1</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.45">
@@ -7371,14 +7387,14 @@
       <c r="E200" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F200" s="5">
-        <v>45641</v>
+      <c r="F200" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>495</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.45">
@@ -7397,14 +7413,14 @@
       <c r="E201" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F201" s="5">
-        <v>45636</v>
+      <c r="F201" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.45">
@@ -7423,14 +7439,14 @@
       <c r="E202" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F202" s="5">
-        <v>45639</v>
+      <c r="F202" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G202" s="3">
         <v>1</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.45">
@@ -7449,14 +7465,14 @@
       <c r="E203" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F203" s="5">
-        <v>45635</v>
+      <c r="F203" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G203" s="3">
         <v>1</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.45">
@@ -7475,14 +7491,14 @@
       <c r="E204" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F204" s="5">
-        <v>45635</v>
+      <c r="F204" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G204" s="3">
         <v>2</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.45">
@@ -7501,14 +7517,14 @@
       <c r="E205" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F205" s="5">
-        <v>45638</v>
+      <c r="F205" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G205" s="3">
         <v>1</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.45">
@@ -7527,14 +7543,14 @@
       <c r="E206" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F206" s="5">
-        <v>45639</v>
+      <c r="F206" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>498</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.45">
@@ -7553,14 +7569,14 @@
       <c r="E207" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F207" s="5">
-        <v>45639</v>
+      <c r="F207" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>499</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.45">
@@ -7579,14 +7595,14 @@
       <c r="E208" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F208" s="5">
-        <v>45639</v>
+      <c r="F208" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G208" s="3" t="s">
         <v>500</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.45">
@@ -7605,14 +7621,14 @@
       <c r="E209" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F209" s="5">
-        <v>45639</v>
+      <c r="F209" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.45">
@@ -7631,14 +7647,14 @@
       <c r="E210" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F210" s="5">
-        <v>45639</v>
+      <c r="F210" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G210" s="3">
         <v>1</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.45">
@@ -7657,14 +7673,14 @@
       <c r="E211" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F211" s="5">
-        <v>45639</v>
+      <c r="F211" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G211" s="3">
         <v>2</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.45">
@@ -7683,14 +7699,14 @@
       <c r="E212" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F212" s="5">
-        <v>45635</v>
+      <c r="F212" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>501</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.45">
@@ -7709,14 +7725,14 @@
       <c r="E213" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F213" s="5">
-        <v>45636</v>
+      <c r="F213" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.45">
@@ -7735,14 +7751,14 @@
       <c r="E214" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F214" s="5">
-        <v>45636</v>
+      <c r="F214" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G214" s="3" t="s">
         <v>501</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.45">
@@ -7761,14 +7777,14 @@
       <c r="E215" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F215" s="5">
-        <v>45636</v>
+      <c r="F215" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G215" s="3" t="s">
         <v>501</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.45">
@@ -7787,14 +7803,14 @@
       <c r="E216" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F216" s="5">
-        <v>45636</v>
+      <c r="F216" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G216" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.45">
@@ -7813,14 +7829,14 @@
       <c r="E217" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F217" s="5">
-        <v>45636</v>
+      <c r="F217" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G217" s="3" t="s">
         <v>498</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.45">
@@ -7839,14 +7855,14 @@
       <c r="E218" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F218" s="5">
-        <v>45636</v>
+      <c r="F218" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G218" s="3" t="s">
         <v>501</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.45">
@@ -7865,14 +7881,14 @@
       <c r="E219" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F219" s="5">
-        <v>45639</v>
+      <c r="F219" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G219" s="3" t="s">
         <v>501</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.45">
@@ -7891,14 +7907,14 @@
       <c r="E220" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F220" s="5">
-        <v>45639</v>
+      <c r="F220" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G220" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.45">
@@ -7917,14 +7933,14 @@
       <c r="E221" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F221" s="5">
-        <v>45639</v>
+      <c r="F221" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G221" s="3" t="s">
         <v>498</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.45">
@@ -7943,14 +7959,14 @@
       <c r="E222" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F222" s="5">
-        <v>45638</v>
+      <c r="F222" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G222" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.45">
@@ -7969,14 +7985,14 @@
       <c r="E223" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F223" s="5">
-        <v>45638</v>
+      <c r="F223" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G223" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.45">
@@ -7995,14 +8011,14 @@
       <c r="E224" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F224" s="5">
-        <v>45635</v>
+      <c r="F224" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G224" s="3" t="s">
         <v>499</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.45">
@@ -8021,14 +8037,14 @@
       <c r="E225" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F225" s="5">
-        <v>45636</v>
+      <c r="F225" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G225" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.45">
@@ -8047,14 +8063,14 @@
       <c r="E226" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F226" s="5">
-        <v>45636</v>
+      <c r="F226" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G226" s="3" t="s">
         <v>502</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.45">
@@ -8073,14 +8089,14 @@
       <c r="E227" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F227" s="5">
-        <v>45638</v>
+      <c r="F227" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G227" s="3">
         <v>1</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.45">
@@ -8099,14 +8115,14 @@
       <c r="E228" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F228" s="5">
-        <v>45638</v>
+      <c r="F228" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G228" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.45">
@@ -8125,14 +8141,14 @@
       <c r="E229" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F229" s="5">
-        <v>45641</v>
+      <c r="F229" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G229" s="3" t="s">
         <v>495</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.45">
@@ -8151,14 +8167,14 @@
       <c r="E230" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F230" s="5">
-        <v>45636</v>
+      <c r="F230" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G230" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.45">
@@ -8177,14 +8193,14 @@
       <c r="E231" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F231" s="5">
-        <v>45641</v>
+      <c r="F231" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G231" s="3" t="s">
         <v>503</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.45">
@@ -8203,14 +8219,14 @@
       <c r="E232" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F232" s="5">
-        <v>45638</v>
+      <c r="F232" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G232" s="3" t="s">
         <v>496</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.45">
@@ -8229,14 +8245,14 @@
       <c r="E233" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F233" s="5">
-        <v>45635</v>
+      <c r="F233" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G233" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.45">
@@ -8255,14 +8271,14 @@
       <c r="E234" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F234" s="5">
-        <v>45636</v>
+      <c r="F234" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G234" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.45">
@@ -8281,14 +8297,14 @@
       <c r="E235" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F235" s="5">
-        <v>45636</v>
+      <c r="F235" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G235" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.45">
@@ -8307,14 +8323,14 @@
       <c r="E236" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F236" s="5">
-        <v>45639</v>
+      <c r="F236" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G236" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.45">
@@ -8333,14 +8349,14 @@
       <c r="E237" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F237" s="5">
-        <v>45636</v>
+      <c r="F237" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G237" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.45">
@@ -8359,8 +8375,8 @@
       <c r="E238" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F238" s="5">
-        <v>45635</v>
+      <c r="F238" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G238" s="3" t="s">
         <v>3</v>
@@ -8385,8 +8401,8 @@
       <c r="E239" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F239" s="5">
-        <v>45639</v>
+      <c r="F239" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G239" s="3" t="s">
         <v>3</v>
@@ -8411,8 +8427,8 @@
       <c r="E240" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F240" s="5">
-        <v>45638</v>
+      <c r="F240" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G240" s="3" t="s">
         <v>3</v>
@@ -8437,8 +8453,8 @@
       <c r="E241" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F241" s="5">
-        <v>45638</v>
+      <c r="F241" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G241" s="3" t="s">
         <v>3</v>
@@ -8463,8 +8479,8 @@
       <c r="E242" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F242" s="5">
-        <v>45638</v>
+      <c r="F242" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G242" s="3" t="s">
         <v>3</v>
@@ -8489,8 +8505,8 @@
       <c r="E243" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F243" s="5">
-        <v>45636</v>
+      <c r="F243" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G243" s="3" t="s">
         <v>3</v>
@@ -8515,8 +8531,8 @@
       <c r="E244" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F244" s="5">
-        <v>45636</v>
+      <c r="F244" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G244" s="3" t="s">
         <v>3</v>
@@ -8541,8 +8557,8 @@
       <c r="E245" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F245" s="5">
-        <v>45638</v>
+      <c r="F245" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G245" s="3" t="s">
         <v>3</v>
@@ -8567,8 +8583,8 @@
       <c r="E246" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F246" s="5">
-        <v>45636</v>
+      <c r="F246" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G246" s="3" t="s">
         <v>3</v>
@@ -8593,8 +8609,8 @@
       <c r="E247" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F247" s="5">
-        <v>45636</v>
+      <c r="F247" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G247" s="3" t="s">
         <v>3</v>
@@ -8619,8 +8635,8 @@
       <c r="E248" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F248" s="5">
-        <v>45635</v>
+      <c r="F248" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G248" s="3" t="s">
         <v>3</v>
@@ -8645,8 +8661,8 @@
       <c r="E249" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F249" s="5">
-        <v>45636</v>
+      <c r="F249" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G249" s="3" t="s">
         <v>3</v>
@@ -8671,8 +8687,8 @@
       <c r="E250" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F250" s="5">
-        <v>45635</v>
+      <c r="F250" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G250" s="3" t="s">
         <v>3</v>
@@ -8697,8 +8713,8 @@
       <c r="E251" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F251" s="5">
-        <v>45636</v>
+      <c r="F251" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G251" s="3" t="s">
         <v>3</v>
@@ -8723,8 +8739,8 @@
       <c r="E252" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F252" s="5">
-        <v>45639</v>
+      <c r="F252" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G252" s="3" t="s">
         <v>3</v>
@@ -8749,8 +8765,8 @@
       <c r="E253" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F253" s="5">
-        <v>45641</v>
+      <c r="F253" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G253" s="3" t="s">
         <v>496</v>
@@ -8775,8 +8791,8 @@
       <c r="E254" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F254" s="5">
-        <v>45641</v>
+      <c r="F254" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G254" s="3">
         <v>1</v>
@@ -8801,8 +8817,8 @@
       <c r="E255" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F255" s="5">
-        <v>45641</v>
+      <c r="F255" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G255" s="3" t="s">
         <v>3</v>
@@ -8827,8 +8843,8 @@
       <c r="E256" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F256" s="5">
-        <v>45641</v>
+      <c r="F256" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G256" s="3" t="s">
         <v>4</v>
@@ -8853,8 +8869,8 @@
       <c r="E257" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F257" s="5">
-        <v>45638</v>
+      <c r="F257" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G257" s="3" t="s">
         <v>3</v>
@@ -8879,8 +8895,8 @@
       <c r="E258" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F258" s="5">
-        <v>45641</v>
+      <c r="F258" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G258" s="3" t="s">
         <v>3</v>
@@ -8905,8 +8921,8 @@
       <c r="E259" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F259" s="5">
-        <v>45639</v>
+      <c r="F259" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G259" s="3" t="s">
         <v>3</v>
@@ -8931,8 +8947,8 @@
       <c r="E260" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F260" s="5">
-        <v>45635</v>
+      <c r="F260" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G260" s="3" t="s">
         <v>3</v>
@@ -8957,8 +8973,8 @@
       <c r="E261" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F261" s="5">
-        <v>45641</v>
+      <c r="F261" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G261" s="3" t="s">
         <v>3</v>
@@ -8983,8 +8999,8 @@
       <c r="E262" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F262" s="5">
-        <v>45639</v>
+      <c r="F262" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G262" s="3" t="s">
         <v>3</v>
@@ -9009,8 +9025,8 @@
       <c r="E263" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F263" s="5">
-        <v>45636</v>
+      <c r="F263" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G263" s="3" t="s">
         <v>4</v>
@@ -9035,8 +9051,8 @@
       <c r="E264" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F264" s="5">
-        <v>45636</v>
+      <c r="F264" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G264" s="3" t="s">
         <v>3</v>
@@ -9061,8 +9077,8 @@
       <c r="E265" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F265" s="5">
-        <v>45635</v>
+      <c r="F265" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G265" s="3" t="s">
         <v>3</v>
@@ -9087,8 +9103,8 @@
       <c r="E266" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F266" s="5">
-        <v>45641</v>
+      <c r="F266" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G266" s="3" t="s">
         <v>3</v>
@@ -9113,8 +9129,8 @@
       <c r="E267" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F267" s="5">
-        <v>45636</v>
+      <c r="F267" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G267" s="3" t="s">
         <v>3</v>
@@ -9139,8 +9155,8 @@
       <c r="E268" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F268" s="5">
-        <v>45638</v>
+      <c r="F268" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G268" s="3" t="s">
         <v>3</v>
@@ -9165,8 +9181,8 @@
       <c r="E269" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F269" s="5">
-        <v>45635</v>
+      <c r="F269" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G269" s="3" t="s">
         <v>504</v>
@@ -9191,8 +9207,8 @@
       <c r="E270" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F270" s="5">
-        <v>45638</v>
+      <c r="F270" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G270" s="3" t="s">
         <v>3</v>
@@ -9217,8 +9233,8 @@
       <c r="E271" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F271" s="5">
-        <v>45636</v>
+      <c r="F271" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G271" s="3" t="s">
         <v>3</v>
@@ -9243,8 +9259,8 @@
       <c r="E272" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F272" s="5">
-        <v>45639</v>
+      <c r="F272" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G272" s="3" t="s">
         <v>3</v>
@@ -9269,8 +9285,8 @@
       <c r="E273" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F273" s="5">
-        <v>45639</v>
+      <c r="F273" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G273" s="3" t="s">
         <v>3</v>
@@ -9295,8 +9311,8 @@
       <c r="E274" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F274" s="5">
-        <v>45636</v>
+      <c r="F274" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G274" s="3" t="s">
         <v>496</v>
@@ -9321,8 +9337,8 @@
       <c r="E275" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F275" s="5">
-        <v>45635</v>
+      <c r="F275" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G275" s="3" t="s">
         <v>504</v>
@@ -9331,32 +9347,32 @@
         <v>28</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A276" s="6">
+    <row r="276" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A276" s="5">
         <v>27201</v>
       </c>
-      <c r="B276" s="6" t="s">
+      <c r="B276" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C276" s="6" t="s">
+      <c r="C276" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="D276" s="6" t="s">
+      <c r="D276" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="E276" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="F276" s="8">
-        <v>45641</v>
-      </c>
-      <c r="G276" s="6">
+      <c r="E276" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="F276" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="G276" s="5">
         <v>1</v>
       </c>
-      <c r="H276" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="I276" s="6"/>
+      <c r="H276" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="I276" s="3"/>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A277" s="3">
@@ -9374,14 +9390,14 @@
       <c r="E277" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F277" s="5">
-        <v>45641</v>
+      <c r="F277" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G277" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H277" s="18" t="s">
-        <v>552</v>
+      <c r="H277" s="13" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.45">
@@ -9400,14 +9416,14 @@
       <c r="E278" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F278" s="5">
-        <v>45639</v>
+      <c r="F278" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G278" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H278" s="18" t="s">
-        <v>552</v>
+      <c r="H278" s="13" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.45">
@@ -9426,14 +9442,14 @@
       <c r="E279" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F279" s="5">
-        <v>45639</v>
+      <c r="F279" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G279" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H279" s="18" t="s">
-        <v>552</v>
+      <c r="H279" s="13" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.45">
@@ -9452,14 +9468,14 @@
       <c r="E280" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F280" s="5">
-        <v>45636</v>
+      <c r="F280" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G280" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="H280" s="18" t="s">
-        <v>552</v>
+      <c r="H280" s="13" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.45">
@@ -9478,14 +9494,14 @@
       <c r="E281" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F281" s="5">
-        <v>45639</v>
+      <c r="F281" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G281" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H281" s="18" t="s">
-        <v>552</v>
+      <c r="H281" s="13" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.45">
@@ -9504,14 +9520,14 @@
       <c r="E282" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F282" s="5">
-        <v>45636</v>
+      <c r="F282" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G282" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H282" s="18" t="s">
-        <v>552</v>
+      <c r="H282" s="13" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.45">
@@ -9530,14 +9546,14 @@
       <c r="E283" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F283" s="5">
-        <v>45639</v>
+      <c r="F283" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G283" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H283" s="18" t="s">
-        <v>552</v>
+      <c r="H283" s="13" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.45">
@@ -9556,14 +9572,14 @@
       <c r="E284" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F284" s="5">
-        <v>45638</v>
+      <c r="F284" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G284" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H284" s="18" t="s">
-        <v>552</v>
+      <c r="H284" s="13" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.45">
@@ -9582,14 +9598,14 @@
       <c r="E285" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F285" s="5">
-        <v>45639</v>
+      <c r="F285" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G285" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H285" s="18" t="s">
-        <v>552</v>
+      <c r="H285" s="13" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.45">
@@ -9608,14 +9624,14 @@
       <c r="E286" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F286" s="5">
-        <v>45636</v>
+      <c r="F286" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G286" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="H286" s="18" t="s">
-        <v>552</v>
+      <c r="H286" s="13" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.45">
@@ -9634,14 +9650,14 @@
       <c r="E287" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F287" s="5">
-        <v>45638</v>
+      <c r="F287" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G287" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H287" s="18" t="s">
-        <v>552</v>
+      <c r="H287" s="13" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.45">
@@ -9660,14 +9676,14 @@
       <c r="E288" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F288" s="5">
-        <v>45639</v>
+      <c r="F288" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G288" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H288" s="18" t="s">
-        <v>552</v>
+      <c r="H288" s="13" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.45">
@@ -9686,14 +9702,14 @@
       <c r="E289" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F289" s="5">
-        <v>45636</v>
+      <c r="F289" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G289" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H289" s="18" t="s">
-        <v>552</v>
+      <c r="H289" s="13" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.45">
@@ -9712,14 +9728,14 @@
       <c r="E290" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F290" s="5">
-        <v>45641</v>
+      <c r="F290" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G290" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H290" s="18" t="s">
-        <v>552</v>
+      <c r="H290" s="13" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.45">
@@ -9738,14 +9754,14 @@
       <c r="E291" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F291" s="5">
-        <v>45636</v>
+      <c r="F291" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G291" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="H291" s="18" t="s">
-        <v>552</v>
+      <c r="H291" s="13" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.45">
@@ -9764,14 +9780,14 @@
       <c r="E292" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F292" s="5">
-        <v>45635</v>
+      <c r="F292" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G292" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H292" s="18" t="s">
-        <v>552</v>
+      <c r="H292" s="13" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.45">
@@ -9790,14 +9806,14 @@
       <c r="E293" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F293" s="5">
-        <v>45636</v>
+      <c r="F293" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G293" s="3">
         <v>1</v>
       </c>
       <c r="H293" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.45">
@@ -9816,14 +9832,14 @@
       <c r="E294" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F294" s="5">
-        <v>45636</v>
+      <c r="F294" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G294" s="3">
         <v>2</v>
       </c>
       <c r="H294" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.45">
@@ -9842,14 +9858,14 @@
       <c r="E295" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F295" s="5">
-        <v>45636</v>
+      <c r="F295" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G295" s="3">
         <v>3</v>
       </c>
       <c r="H295" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.45">
@@ -9868,14 +9884,14 @@
       <c r="E296" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F296" s="5">
-        <v>45636</v>
+      <c r="F296" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G296" s="3">
         <v>4</v>
       </c>
       <c r="H296" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.45">
@@ -9894,14 +9910,14 @@
       <c r="E297" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F297" s="5">
-        <v>45636</v>
+      <c r="F297" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G297" s="3">
         <v>5</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.45">
@@ -9920,14 +9936,14 @@
       <c r="E298" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F298" s="5">
-        <v>45636</v>
+      <c r="F298" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G298" s="3">
         <v>1</v>
       </c>
       <c r="H298" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.45">
@@ -9946,14 +9962,14 @@
       <c r="E299" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F299" s="5">
-        <v>45636</v>
+      <c r="F299" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G299" s="3">
         <v>2</v>
       </c>
       <c r="H299" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.45">
@@ -9972,14 +9988,14 @@
       <c r="E300" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F300" s="5">
-        <v>45636</v>
+      <c r="F300" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G300" s="3">
         <v>1</v>
       </c>
       <c r="H300" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.45">
@@ -9998,14 +10014,14 @@
       <c r="E301" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F301" s="5">
-        <v>45636</v>
+      <c r="F301" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G301" s="3">
         <v>2</v>
       </c>
       <c r="H301" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.45">
@@ -10024,14 +10040,14 @@
       <c r="E302" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F302" s="5">
-        <v>45636</v>
+      <c r="F302" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G302" s="3">
         <v>3</v>
       </c>
       <c r="H302" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.45">
@@ -10050,14 +10066,14 @@
       <c r="E303" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F303" s="5">
-        <v>45636</v>
+      <c r="F303" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G303" s="3">
         <v>4</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.45">
@@ -10076,14 +10092,14 @@
       <c r="E304" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F304" s="5">
-        <v>45636</v>
+      <c r="F304" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G304" s="3">
         <v>1</v>
       </c>
       <c r="H304" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.45">
@@ -10102,14 +10118,14 @@
       <c r="E305" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F305" s="5">
-        <v>45636</v>
+      <c r="F305" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G305" s="3">
         <v>1</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.45">
@@ -10128,14 +10144,14 @@
       <c r="E306" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F306" s="5">
-        <v>45635</v>
+      <c r="F306" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G306" s="3">
         <v>1</v>
       </c>
       <c r="H306" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.45">
@@ -10154,14 +10170,14 @@
       <c r="E307" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F307" s="5">
-        <v>45635</v>
+      <c r="F307" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G307" s="3">
         <v>1</v>
       </c>
       <c r="H307" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.45">
@@ -10180,14 +10196,14 @@
       <c r="E308" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F308" s="5">
-        <v>45635</v>
+      <c r="F308" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G308" s="3">
         <v>1</v>
       </c>
       <c r="H308" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.45">
@@ -10206,14 +10222,14 @@
       <c r="E309" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F309" s="5">
-        <v>45635</v>
+      <c r="F309" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G309" s="3">
         <v>2</v>
       </c>
       <c r="H309" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.45">
@@ -10232,14 +10248,14 @@
       <c r="E310" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F310" s="5">
-        <v>45635</v>
+      <c r="F310" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G310" s="3">
         <v>3</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.45">
@@ -10258,14 +10274,14 @@
       <c r="E311" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F311" s="5">
-        <v>45635</v>
+      <c r="F311" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G311" s="3">
         <v>4</v>
       </c>
       <c r="H311" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.45">
@@ -10284,14 +10300,14 @@
       <c r="E312" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F312" s="5">
-        <v>45635</v>
+      <c r="F312" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G312" s="3">
         <v>5</v>
       </c>
       <c r="H312" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.45">
@@ -10310,14 +10326,14 @@
       <c r="E313" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F313" s="5">
-        <v>45635</v>
+      <c r="F313" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G313" s="3">
         <v>6</v>
       </c>
       <c r="H313" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.45">
@@ -10336,14 +10352,14 @@
       <c r="E314" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F314" s="5">
-        <v>45639</v>
+      <c r="F314" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G314" s="3">
         <v>1</v>
       </c>
       <c r="H314" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.45">
@@ -10362,14 +10378,14 @@
       <c r="E315" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F315" s="5">
-        <v>45635</v>
+      <c r="F315" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G315" s="3">
         <v>1</v>
       </c>
       <c r="H315" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.45">
@@ -10388,14 +10404,14 @@
       <c r="E316" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F316" s="5">
-        <v>45635</v>
+      <c r="F316" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G316" s="3">
         <v>2</v>
       </c>
       <c r="H316" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.45">
@@ -10414,14 +10430,14 @@
       <c r="E317" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F317" s="5">
-        <v>45639</v>
+      <c r="F317" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G317" s="3">
         <v>1</v>
       </c>
       <c r="H317" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.45">
@@ -10440,14 +10456,14 @@
       <c r="E318" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F318" s="5">
-        <v>45639</v>
+      <c r="F318" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G318" s="3">
         <v>2</v>
       </c>
       <c r="H318" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.45">
@@ -10466,14 +10482,14 @@
       <c r="E319" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F319" s="5">
-        <v>45636</v>
+      <c r="F319" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G319" s="3">
         <v>1</v>
       </c>
       <c r="H319" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.45">
@@ -10492,14 +10508,14 @@
       <c r="E320" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F320" s="5">
-        <v>45636</v>
+      <c r="F320" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G320" s="3">
         <v>2</v>
       </c>
       <c r="H320" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.45">
@@ -10518,14 +10534,14 @@
       <c r="E321" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F321" s="5">
-        <v>45638</v>
+      <c r="F321" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G321" s="3">
         <v>1</v>
       </c>
       <c r="H321" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.45">
@@ -10544,14 +10560,14 @@
       <c r="E322" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F322" s="5">
-        <v>45638</v>
+      <c r="F322" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G322" s="3">
         <v>2</v>
       </c>
       <c r="H322" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.45">
@@ -10570,42 +10586,42 @@
       <c r="E323" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F323" s="5">
-        <v>45639</v>
+      <c r="F323" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G323" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H323" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A324" s="5">
+        <v>21301</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="D324" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E324" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="F324" s="15" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A324" s="6">
-        <v>21301</v>
-      </c>
-      <c r="B324" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C324" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="D324" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="E324" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="F324" s="8">
-        <v>45638</v>
-      </c>
-      <c r="G324" s="6" t="s">
+      <c r="G324" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H324" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="I324" s="6"/>
+        <v>548</v>
+      </c>
+      <c r="I324" s="3"/>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A325" s="3">
@@ -10623,14 +10639,14 @@
       <c r="E325" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F325" s="5">
-        <v>45636</v>
+      <c r="F325" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G325" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H325" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.45">
@@ -10649,14 +10665,14 @@
       <c r="E326" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F326" s="5">
-        <v>45638</v>
+      <c r="F326" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G326" s="3">
         <v>1</v>
       </c>
       <c r="H326" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.45">
@@ -10675,14 +10691,14 @@
       <c r="E327" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F327" s="5">
-        <v>45638</v>
+      <c r="F327" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G327" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H327" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.45">
@@ -10701,14 +10717,14 @@
       <c r="E328" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F328" s="5">
-        <v>45635</v>
+      <c r="F328" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G328" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H328" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.45">
@@ -10727,14 +10743,14 @@
       <c r="E329" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F329" s="5">
-        <v>45635</v>
+      <c r="F329" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G329" s="3">
         <v>1</v>
       </c>
       <c r="H329" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.45">
@@ -10753,14 +10769,14 @@
       <c r="E330" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F330" s="5">
-        <v>45636</v>
+      <c r="F330" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G330" s="3">
         <v>1</v>
       </c>
       <c r="H330" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.45">
@@ -10779,14 +10795,14 @@
       <c r="E331" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F331" s="5">
-        <v>45639</v>
+      <c r="F331" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G331" s="3">
         <v>1</v>
       </c>
       <c r="H331" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.45">
@@ -10805,14 +10821,14 @@
       <c r="E332" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F332" s="5">
-        <v>45636</v>
+      <c r="F332" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G332" s="3" t="s">
         <v>496</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.45">
@@ -10831,14 +10847,14 @@
       <c r="E333" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F333" s="5">
-        <v>45635</v>
+      <c r="F333" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G333" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H333" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.45">
@@ -10857,14 +10873,14 @@
       <c r="E334" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F334" s="5">
-        <v>45636</v>
+      <c r="F334" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G334" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H334" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.45">
@@ -10883,14 +10899,14 @@
       <c r="E335" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F335" s="5">
-        <v>45639</v>
+      <c r="F335" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G335" s="3">
         <v>1</v>
       </c>
       <c r="H335" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.45">
@@ -10909,14 +10925,14 @@
       <c r="E336" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F336" s="5">
-        <v>45639</v>
+      <c r="F336" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G336" s="3">
         <v>1</v>
       </c>
       <c r="H336" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.45">
@@ -10935,14 +10951,14 @@
       <c r="E337" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F337" s="5">
-        <v>45638</v>
+      <c r="F337" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G337" s="3">
         <v>1</v>
       </c>
       <c r="H337" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.45">
@@ -10961,14 +10977,14 @@
       <c r="E338" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F338" s="5">
-        <v>45636</v>
+      <c r="F338" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G338" s="3">
         <v>1</v>
       </c>
       <c r="H338" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.45">
@@ -10987,14 +11003,14 @@
       <c r="E339" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F339" s="5">
-        <v>45639</v>
+      <c r="F339" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G339" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H339" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.45">
@@ -11013,14 +11029,14 @@
       <c r="E340" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F340" s="5">
-        <v>45636</v>
+      <c r="F340" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G340" s="3">
         <v>1</v>
       </c>
       <c r="H340" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.45">
@@ -11039,14 +11055,14 @@
       <c r="E341" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F341" s="5">
-        <v>45636</v>
+      <c r="F341" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G341" s="3">
         <v>1</v>
       </c>
       <c r="H341" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.45">
@@ -11065,14 +11081,14 @@
       <c r="E342" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F342" s="5">
-        <v>45636</v>
+      <c r="F342" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="G342" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H342" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.45">
@@ -11091,14 +11107,14 @@
       <c r="E343" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F343" s="5">
-        <v>45635</v>
+      <c r="F343" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="G343" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H343" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.45">
@@ -11117,14 +11133,14 @@
       <c r="E344" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F344" s="5">
-        <v>45641</v>
+      <c r="F344" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G344" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H344" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.45">
@@ -11143,14 +11159,14 @@
       <c r="E345" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F345" s="5">
-        <v>45639</v>
+      <c r="F345" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G345" s="3" t="s">
         <v>496</v>
       </c>
       <c r="H345" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.45">
@@ -11169,14 +11185,14 @@
       <c r="E346" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F346" s="5">
-        <v>45641</v>
+      <c r="F346" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="G346" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H346" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.45">
@@ -11195,14 +11211,14 @@
       <c r="E347" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F347" s="5">
-        <v>45639</v>
+      <c r="F347" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G347" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H347" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.45">
@@ -11221,14 +11237,14 @@
       <c r="E348" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F348" s="5">
-        <v>45638</v>
+      <c r="F348" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="G348" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H348" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.45">
@@ -11247,14 +11263,14 @@
       <c r="E349" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F349" s="5">
-        <v>45639</v>
+      <c r="F349" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G349" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H349" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.45">
@@ -11273,42 +11289,1989 @@
       <c r="E350" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F350" s="5">
-        <v>45639</v>
+      <c r="F350" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="G350" s="3" t="s">
         <v>496</v>
       </c>
       <c r="H350" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A351" s="16">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A351" s="12">
         <v>47887</v>
       </c>
-      <c r="B351" s="16" t="s">
+      <c r="B351" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C351" s="16" t="s">
+      <c r="C351" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="D351" s="16" t="s">
+      <c r="D351" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="E351" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="F351" s="17">
-        <v>45641</v>
-      </c>
-      <c r="G351" s="16" t="s">
+      <c r="E351" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="F351" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="G351" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="H351" s="16" t="s">
-        <v>556</v>
-      </c>
-      <c r="I351" s="16"/>
+      <c r="H351" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="I351" s="3"/>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F352" s="14"/>
+    </row>
+    <row r="353" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F353" s="14"/>
+    </row>
+    <row r="354" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F354" s="14"/>
+    </row>
+    <row r="355" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F355" s="14"/>
+    </row>
+    <row r="356" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F356" s="14"/>
+    </row>
+    <row r="357" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F357" s="14"/>
+    </row>
+    <row r="358" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F358" s="14"/>
+    </row>
+    <row r="359" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F359" s="14"/>
+    </row>
+    <row r="360" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F360" s="14"/>
+    </row>
+    <row r="361" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F361" s="14"/>
+    </row>
+    <row r="362" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F362" s="14"/>
+    </row>
+    <row r="363" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F363" s="14"/>
+    </row>
+    <row r="364" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F364" s="14"/>
+    </row>
+    <row r="365" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F365" s="14"/>
+    </row>
+    <row r="366" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F366" s="14"/>
+    </row>
+    <row r="367" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F367" s="14"/>
+    </row>
+    <row r="368" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F368" s="14"/>
+    </row>
+    <row r="369" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F369" s="14"/>
+    </row>
+    <row r="370" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F370" s="14"/>
+    </row>
+    <row r="371" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F371" s="14"/>
+    </row>
+    <row r="372" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F372" s="14"/>
+    </row>
+    <row r="373" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F373" s="14"/>
+    </row>
+    <row r="374" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F374" s="14"/>
+    </row>
+    <row r="375" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F375" s="14"/>
+    </row>
+    <row r="376" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F376" s="14"/>
+    </row>
+    <row r="377" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F377" s="14"/>
+    </row>
+    <row r="378" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F378" s="14"/>
+    </row>
+    <row r="379" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F379" s="14"/>
+    </row>
+    <row r="380" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F380" s="14"/>
+    </row>
+    <row r="381" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F381" s="14"/>
+    </row>
+    <row r="382" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F382" s="14"/>
+    </row>
+    <row r="383" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F383" s="14"/>
+    </row>
+    <row r="384" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F384" s="14"/>
+    </row>
+    <row r="385" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F385" s="14"/>
+    </row>
+    <row r="386" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F386" s="14"/>
+    </row>
+    <row r="387" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F387" s="14"/>
+    </row>
+    <row r="388" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F388" s="14"/>
+    </row>
+    <row r="389" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F389" s="14"/>
+    </row>
+    <row r="390" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F390" s="14"/>
+    </row>
+    <row r="391" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F391" s="14"/>
+    </row>
+    <row r="392" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F392" s="14"/>
+    </row>
+    <row r="393" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F393" s="14"/>
+    </row>
+    <row r="394" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F394" s="14"/>
+    </row>
+    <row r="395" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F395" s="14"/>
+    </row>
+    <row r="396" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F396" s="14"/>
+    </row>
+    <row r="397" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F397" s="14"/>
+    </row>
+    <row r="398" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F398" s="14"/>
+    </row>
+    <row r="399" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F399" s="14"/>
+    </row>
+    <row r="400" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F400" s="14"/>
+    </row>
+    <row r="401" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F401" s="14"/>
+    </row>
+    <row r="402" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F402" s="14"/>
+    </row>
+    <row r="403" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F403" s="14"/>
+    </row>
+    <row r="404" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F404" s="14"/>
+    </row>
+    <row r="405" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F405" s="14"/>
+    </row>
+    <row r="406" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F406" s="14"/>
+    </row>
+    <row r="407" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F407" s="14"/>
+    </row>
+    <row r="408" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F408" s="14"/>
+    </row>
+    <row r="409" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F409" s="14"/>
+    </row>
+    <row r="410" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F410" s="14"/>
+    </row>
+    <row r="411" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F411" s="14"/>
+    </row>
+    <row r="412" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F412" s="14"/>
+    </row>
+    <row r="413" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F413" s="14"/>
+    </row>
+    <row r="414" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F414" s="14"/>
+    </row>
+    <row r="415" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F415" s="14"/>
+    </row>
+    <row r="416" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F416" s="14"/>
+    </row>
+    <row r="417" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F417" s="14"/>
+    </row>
+    <row r="418" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F418" s="14"/>
+    </row>
+    <row r="419" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F419" s="14"/>
+    </row>
+    <row r="420" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F420" s="14"/>
+    </row>
+    <row r="421" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F421" s="14"/>
+    </row>
+    <row r="422" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F422" s="14"/>
+    </row>
+    <row r="423" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F423" s="14"/>
+    </row>
+    <row r="424" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F424" s="14"/>
+    </row>
+    <row r="425" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F425" s="14"/>
+    </row>
+    <row r="426" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F426" s="14"/>
+    </row>
+    <row r="427" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F427" s="14"/>
+    </row>
+    <row r="428" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F428" s="14"/>
+    </row>
+    <row r="429" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F429" s="14"/>
+    </row>
+    <row r="430" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F430" s="14"/>
+    </row>
+    <row r="431" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F431" s="14"/>
+    </row>
+    <row r="432" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F432" s="14"/>
+    </row>
+    <row r="433" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F433" s="14"/>
+    </row>
+    <row r="434" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F434" s="14"/>
+    </row>
+    <row r="435" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F435" s="14"/>
+    </row>
+    <row r="436" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F436" s="14"/>
+    </row>
+    <row r="437" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F437" s="14"/>
+    </row>
+    <row r="438" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F438" s="14"/>
+    </row>
+    <row r="439" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F439" s="14"/>
+    </row>
+    <row r="440" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F440" s="14"/>
+    </row>
+    <row r="441" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F441" s="14"/>
+    </row>
+    <row r="442" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F442" s="14"/>
+    </row>
+    <row r="443" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F443" s="14"/>
+    </row>
+    <row r="444" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F444" s="14"/>
+    </row>
+    <row r="445" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F445" s="14"/>
+    </row>
+    <row r="446" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F446" s="14"/>
+    </row>
+    <row r="447" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F447" s="14"/>
+    </row>
+    <row r="448" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F448" s="14"/>
+    </row>
+    <row r="449" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F449" s="14"/>
+    </row>
+    <row r="450" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F450" s="14"/>
+    </row>
+    <row r="451" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F451" s="14"/>
+    </row>
+    <row r="452" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F452" s="14"/>
+    </row>
+    <row r="453" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F453" s="14"/>
+    </row>
+    <row r="454" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F454" s="14"/>
+    </row>
+    <row r="455" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F455" s="14"/>
+    </row>
+    <row r="456" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F456" s="14"/>
+    </row>
+    <row r="457" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F457" s="14"/>
+    </row>
+    <row r="458" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F458" s="14"/>
+    </row>
+    <row r="459" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F459" s="14"/>
+    </row>
+    <row r="460" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F460" s="14"/>
+    </row>
+    <row r="461" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F461" s="14"/>
+    </row>
+    <row r="462" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F462" s="14"/>
+    </row>
+    <row r="463" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F463" s="14"/>
+    </row>
+    <row r="464" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F464" s="14"/>
+    </row>
+    <row r="465" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F465" s="14"/>
+    </row>
+    <row r="466" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F466" s="14"/>
+    </row>
+    <row r="467" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F467" s="14"/>
+    </row>
+    <row r="468" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F468" s="14"/>
+    </row>
+    <row r="469" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F469" s="14"/>
+    </row>
+    <row r="470" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F470" s="14"/>
+    </row>
+    <row r="471" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F471" s="14"/>
+    </row>
+    <row r="472" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F472" s="14"/>
+    </row>
+    <row r="473" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F473" s="14"/>
+    </row>
+    <row r="474" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F474" s="14"/>
+    </row>
+    <row r="475" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F475" s="14"/>
+    </row>
+    <row r="476" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F476" s="14"/>
+    </row>
+    <row r="477" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F477" s="14"/>
+    </row>
+    <row r="478" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F478" s="14"/>
+    </row>
+    <row r="479" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F479" s="14"/>
+    </row>
+    <row r="480" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F480" s="14"/>
+    </row>
+    <row r="481" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F481" s="14"/>
+    </row>
+    <row r="482" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F482" s="14"/>
+    </row>
+    <row r="483" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F483" s="14"/>
+    </row>
+    <row r="484" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F484" s="14"/>
+    </row>
+    <row r="485" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F485" s="14"/>
+    </row>
+    <row r="486" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F486" s="14"/>
+    </row>
+    <row r="487" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F487" s="14"/>
+    </row>
+    <row r="488" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F488" s="14"/>
+    </row>
+    <row r="489" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F489" s="14"/>
+    </row>
+    <row r="490" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F490" s="14"/>
+    </row>
+    <row r="491" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F491" s="14"/>
+    </row>
+    <row r="492" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F492" s="14"/>
+    </row>
+    <row r="493" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F493" s="14"/>
+    </row>
+    <row r="494" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F494" s="14"/>
+    </row>
+    <row r="495" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F495" s="14"/>
+    </row>
+    <row r="496" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F496" s="14"/>
+    </row>
+    <row r="497" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F497" s="14"/>
+    </row>
+    <row r="498" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F498" s="14"/>
+    </row>
+    <row r="499" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F499" s="14"/>
+    </row>
+    <row r="500" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F500" s="14"/>
+    </row>
+    <row r="501" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F501" s="14"/>
+    </row>
+    <row r="502" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F502" s="14"/>
+    </row>
+    <row r="503" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F503" s="14"/>
+    </row>
+    <row r="504" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F504" s="14"/>
+    </row>
+    <row r="505" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F505" s="14"/>
+    </row>
+    <row r="506" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F506" s="14"/>
+    </row>
+    <row r="507" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F507" s="14"/>
+    </row>
+    <row r="508" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F508" s="14"/>
+    </row>
+    <row r="509" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F509" s="14"/>
+    </row>
+    <row r="510" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F510" s="14"/>
+    </row>
+    <row r="511" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F511" s="14"/>
+    </row>
+    <row r="512" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F512" s="14"/>
+    </row>
+    <row r="513" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F513" s="14"/>
+    </row>
+    <row r="514" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F514" s="14"/>
+    </row>
+    <row r="515" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F515" s="14"/>
+    </row>
+    <row r="516" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F516" s="14"/>
+    </row>
+    <row r="517" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F517" s="14"/>
+    </row>
+    <row r="518" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F518" s="14"/>
+    </row>
+    <row r="519" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F519" s="14"/>
+    </row>
+    <row r="520" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F520" s="14"/>
+    </row>
+    <row r="521" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F521" s="14"/>
+    </row>
+    <row r="522" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F522" s="14"/>
+    </row>
+    <row r="523" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F523" s="14"/>
+    </row>
+    <row r="524" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F524" s="14"/>
+    </row>
+    <row r="525" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F525" s="14"/>
+    </row>
+    <row r="526" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F526" s="14"/>
+    </row>
+    <row r="527" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F527" s="14"/>
+    </row>
+    <row r="528" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F528" s="14"/>
+    </row>
+    <row r="529" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F529" s="14"/>
+    </row>
+    <row r="530" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F530" s="14"/>
+    </row>
+    <row r="531" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F531" s="14"/>
+    </row>
+    <row r="532" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F532" s="14"/>
+    </row>
+    <row r="533" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F533" s="14"/>
+    </row>
+    <row r="534" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F534" s="14"/>
+    </row>
+    <row r="535" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F535" s="14"/>
+    </row>
+    <row r="536" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F536" s="14"/>
+    </row>
+    <row r="537" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F537" s="14"/>
+    </row>
+    <row r="538" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F538" s="14"/>
+    </row>
+    <row r="539" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F539" s="14"/>
+    </row>
+    <row r="540" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F540" s="14"/>
+    </row>
+    <row r="541" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F541" s="14"/>
+    </row>
+    <row r="542" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F542" s="14"/>
+    </row>
+    <row r="543" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F543" s="14"/>
+    </row>
+    <row r="544" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F544" s="14"/>
+    </row>
+    <row r="545" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F545" s="14"/>
+    </row>
+    <row r="546" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F546" s="14"/>
+    </row>
+    <row r="547" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F547" s="14"/>
+    </row>
+    <row r="548" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F548" s="14"/>
+    </row>
+    <row r="549" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F549" s="14"/>
+    </row>
+    <row r="550" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F550" s="14"/>
+    </row>
+    <row r="551" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F551" s="14"/>
+    </row>
+    <row r="552" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F552" s="14"/>
+    </row>
+    <row r="553" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F553" s="14"/>
+    </row>
+    <row r="554" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F554" s="14"/>
+    </row>
+    <row r="555" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F555" s="14"/>
+    </row>
+    <row r="556" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F556" s="14"/>
+    </row>
+    <row r="557" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F557" s="14"/>
+    </row>
+    <row r="558" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F558" s="14"/>
+    </row>
+    <row r="559" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F559" s="14"/>
+    </row>
+    <row r="560" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F560" s="14"/>
+    </row>
+    <row r="561" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F561" s="14"/>
+    </row>
+    <row r="562" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F562" s="14"/>
+    </row>
+    <row r="563" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F563" s="14"/>
+    </row>
+    <row r="564" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F564" s="14"/>
+    </row>
+    <row r="565" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F565" s="14"/>
+    </row>
+    <row r="566" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F566" s="14"/>
+    </row>
+    <row r="567" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F567" s="14"/>
+    </row>
+    <row r="568" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F568" s="14"/>
+    </row>
+    <row r="569" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F569" s="14"/>
+    </row>
+    <row r="570" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F570" s="14"/>
+    </row>
+    <row r="571" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F571" s="14"/>
+    </row>
+    <row r="572" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F572" s="14"/>
+    </row>
+    <row r="573" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F573" s="14"/>
+    </row>
+    <row r="574" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F574" s="14"/>
+    </row>
+    <row r="575" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F575" s="14"/>
+    </row>
+    <row r="576" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F576" s="14"/>
+    </row>
+    <row r="577" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F577" s="14"/>
+    </row>
+    <row r="578" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F578" s="14"/>
+    </row>
+    <row r="579" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F579" s="14"/>
+    </row>
+    <row r="580" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F580" s="14"/>
+    </row>
+    <row r="581" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F581" s="14"/>
+    </row>
+    <row r="582" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F582" s="14"/>
+    </row>
+    <row r="583" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F583" s="14"/>
+    </row>
+    <row r="584" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F584" s="14"/>
+    </row>
+    <row r="585" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F585" s="14"/>
+    </row>
+    <row r="586" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F586" s="14"/>
+    </row>
+    <row r="587" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F587" s="14"/>
+    </row>
+    <row r="588" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F588" s="14"/>
+    </row>
+    <row r="589" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F589" s="14"/>
+    </row>
+    <row r="590" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F590" s="14"/>
+    </row>
+    <row r="591" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F591" s="14"/>
+    </row>
+    <row r="592" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F592" s="14"/>
+    </row>
+    <row r="593" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F593" s="14"/>
+    </row>
+    <row r="594" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F594" s="14"/>
+    </row>
+    <row r="595" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F595" s="14"/>
+    </row>
+    <row r="596" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F596" s="14"/>
+    </row>
+    <row r="597" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F597" s="14"/>
+    </row>
+    <row r="598" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F598" s="14"/>
+    </row>
+    <row r="599" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F599" s="14"/>
+    </row>
+    <row r="600" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F600" s="14"/>
+    </row>
+    <row r="601" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F601" s="14"/>
+    </row>
+    <row r="602" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F602" s="14"/>
+    </row>
+    <row r="603" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F603" s="14"/>
+    </row>
+    <row r="604" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F604" s="14"/>
+    </row>
+    <row r="605" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F605" s="14"/>
+    </row>
+    <row r="606" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F606" s="14"/>
+    </row>
+    <row r="607" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F607" s="14"/>
+    </row>
+    <row r="608" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F608" s="14"/>
+    </row>
+    <row r="609" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F609" s="14"/>
+    </row>
+    <row r="610" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F610" s="14"/>
+    </row>
+    <row r="611" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F611" s="14"/>
+    </row>
+    <row r="612" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F612" s="14"/>
+    </row>
+    <row r="613" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F613" s="14"/>
+    </row>
+    <row r="614" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F614" s="14"/>
+    </row>
+    <row r="615" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F615" s="14"/>
+    </row>
+    <row r="616" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F616" s="14"/>
+    </row>
+    <row r="617" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F617" s="14"/>
+    </row>
+    <row r="618" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F618" s="14"/>
+    </row>
+    <row r="619" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F619" s="14"/>
+    </row>
+    <row r="620" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F620" s="14"/>
+    </row>
+    <row r="621" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F621" s="14"/>
+    </row>
+    <row r="622" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F622" s="14"/>
+    </row>
+    <row r="623" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F623" s="14"/>
+    </row>
+    <row r="624" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F624" s="14"/>
+    </row>
+    <row r="625" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F625" s="14"/>
+    </row>
+    <row r="626" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F626" s="14"/>
+    </row>
+    <row r="627" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F627" s="14"/>
+    </row>
+    <row r="628" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F628" s="14"/>
+    </row>
+    <row r="629" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F629" s="14"/>
+    </row>
+    <row r="630" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F630" s="14"/>
+    </row>
+    <row r="631" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F631" s="14"/>
+    </row>
+    <row r="632" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F632" s="14"/>
+    </row>
+    <row r="633" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F633" s="14"/>
+    </row>
+    <row r="634" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F634" s="14"/>
+    </row>
+    <row r="635" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F635" s="14"/>
+    </row>
+    <row r="636" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F636" s="14"/>
+    </row>
+    <row r="637" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F637" s="14"/>
+    </row>
+    <row r="638" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F638" s="14"/>
+    </row>
+    <row r="639" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F639" s="14"/>
+    </row>
+    <row r="640" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F640" s="14"/>
+    </row>
+    <row r="641" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F641" s="14"/>
+    </row>
+    <row r="642" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F642" s="14"/>
+    </row>
+    <row r="643" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F643" s="14"/>
+    </row>
+    <row r="644" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F644" s="14"/>
+    </row>
+    <row r="645" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F645" s="14"/>
+    </row>
+    <row r="646" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F646" s="14"/>
+    </row>
+    <row r="647" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F647" s="14"/>
+    </row>
+    <row r="648" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F648" s="14"/>
+    </row>
+    <row r="649" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F649" s="14"/>
+    </row>
+    <row r="650" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F650" s="14"/>
+    </row>
+    <row r="651" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F651" s="14"/>
+    </row>
+    <row r="652" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F652" s="14"/>
+    </row>
+    <row r="653" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F653" s="14"/>
+    </row>
+    <row r="654" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F654" s="14"/>
+    </row>
+    <row r="655" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F655" s="14"/>
+    </row>
+    <row r="656" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F656" s="14"/>
+    </row>
+    <row r="657" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F657" s="14"/>
+    </row>
+    <row r="658" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F658" s="14"/>
+    </row>
+    <row r="659" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F659" s="14"/>
+    </row>
+    <row r="660" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F660" s="14"/>
+    </row>
+    <row r="661" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F661" s="14"/>
+    </row>
+    <row r="662" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F662" s="14"/>
+    </row>
+    <row r="663" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F663" s="14"/>
+    </row>
+    <row r="664" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F664" s="14"/>
+    </row>
+    <row r="665" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F665" s="14"/>
+    </row>
+    <row r="666" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F666" s="14"/>
+    </row>
+    <row r="667" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F667" s="14"/>
+    </row>
+    <row r="668" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F668" s="14"/>
+    </row>
+    <row r="669" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F669" s="14"/>
+    </row>
+    <row r="670" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F670" s="14"/>
+    </row>
+    <row r="671" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F671" s="14"/>
+    </row>
+    <row r="672" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F672" s="14"/>
+    </row>
+    <row r="673" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F673" s="14"/>
+    </row>
+    <row r="674" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F674" s="14"/>
+    </row>
+    <row r="675" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F675" s="14"/>
+    </row>
+    <row r="676" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F676" s="14"/>
+    </row>
+    <row r="677" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F677" s="14"/>
+    </row>
+    <row r="678" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F678" s="14"/>
+    </row>
+    <row r="679" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F679" s="14"/>
+    </row>
+    <row r="680" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F680" s="14"/>
+    </row>
+    <row r="681" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F681" s="14"/>
+    </row>
+    <row r="682" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F682" s="14"/>
+    </row>
+    <row r="683" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F683" s="14"/>
+    </row>
+    <row r="684" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F684" s="14"/>
+    </row>
+    <row r="685" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F685" s="14"/>
+    </row>
+    <row r="686" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F686" s="14"/>
+    </row>
+    <row r="687" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F687" s="14"/>
+    </row>
+    <row r="688" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F688" s="14"/>
+    </row>
+    <row r="689" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F689" s="14"/>
+    </row>
+    <row r="690" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F690" s="14"/>
+    </row>
+    <row r="691" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F691" s="14"/>
+    </row>
+    <row r="692" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F692" s="14"/>
+    </row>
+    <row r="693" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F693" s="14"/>
+    </row>
+    <row r="694" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F694" s="14"/>
+    </row>
+    <row r="695" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F695" s="14"/>
+    </row>
+    <row r="696" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F696" s="14"/>
+    </row>
+    <row r="697" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F697" s="14"/>
+    </row>
+    <row r="698" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F698" s="14"/>
+    </row>
+    <row r="699" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F699" s="14"/>
+    </row>
+    <row r="700" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F700" s="14"/>
+    </row>
+    <row r="701" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F701" s="14"/>
+    </row>
+    <row r="702" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F702" s="14"/>
+    </row>
+    <row r="703" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F703" s="14"/>
+    </row>
+    <row r="704" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F704" s="14"/>
+    </row>
+    <row r="705" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F705" s="14"/>
+    </row>
+    <row r="706" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F706" s="14"/>
+    </row>
+    <row r="707" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F707" s="14"/>
+    </row>
+    <row r="708" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F708" s="14"/>
+    </row>
+    <row r="709" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F709" s="14"/>
+    </row>
+    <row r="710" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F710" s="14"/>
+    </row>
+    <row r="711" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F711" s="14"/>
+    </row>
+    <row r="712" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F712" s="14"/>
+    </row>
+    <row r="713" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F713" s="14"/>
+    </row>
+    <row r="714" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F714" s="14"/>
+    </row>
+    <row r="715" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F715" s="14"/>
+    </row>
+    <row r="716" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F716" s="14"/>
+    </row>
+    <row r="717" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F717" s="14"/>
+    </row>
+    <row r="718" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F718" s="14"/>
+    </row>
+    <row r="719" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F719" s="14"/>
+    </row>
+    <row r="720" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F720" s="14"/>
+    </row>
+    <row r="721" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F721" s="14"/>
+    </row>
+    <row r="722" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F722" s="14"/>
+    </row>
+    <row r="723" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F723" s="14"/>
+    </row>
+    <row r="724" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F724" s="14"/>
+    </row>
+    <row r="725" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F725" s="14"/>
+    </row>
+    <row r="726" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F726" s="14"/>
+    </row>
+    <row r="727" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F727" s="14"/>
+    </row>
+    <row r="728" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F728" s="14"/>
+    </row>
+    <row r="729" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F729" s="14"/>
+    </row>
+    <row r="730" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F730" s="14"/>
+    </row>
+    <row r="731" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F731" s="14"/>
+    </row>
+    <row r="732" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F732" s="14"/>
+    </row>
+    <row r="733" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F733" s="14"/>
+    </row>
+    <row r="734" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F734" s="14"/>
+    </row>
+    <row r="735" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F735" s="14"/>
+    </row>
+    <row r="736" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F736" s="14"/>
+    </row>
+    <row r="737" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F737" s="14"/>
+    </row>
+    <row r="738" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F738" s="14"/>
+    </row>
+    <row r="739" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F739" s="14"/>
+    </row>
+    <row r="740" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F740" s="14"/>
+    </row>
+    <row r="741" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F741" s="14"/>
+    </row>
+    <row r="742" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F742" s="14"/>
+    </row>
+    <row r="743" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F743" s="14"/>
+    </row>
+    <row r="744" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F744" s="14"/>
+    </row>
+    <row r="745" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F745" s="14"/>
+    </row>
+    <row r="746" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F746" s="14"/>
+    </row>
+    <row r="747" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F747" s="14"/>
+    </row>
+    <row r="748" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F748" s="14"/>
+    </row>
+    <row r="749" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F749" s="14"/>
+    </row>
+    <row r="750" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F750" s="14"/>
+    </row>
+    <row r="751" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F751" s="14"/>
+    </row>
+    <row r="752" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F752" s="14"/>
+    </row>
+    <row r="753" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F753" s="14"/>
+    </row>
+    <row r="754" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F754" s="14"/>
+    </row>
+    <row r="755" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F755" s="14"/>
+    </row>
+    <row r="756" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F756" s="14"/>
+    </row>
+    <row r="757" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F757" s="14"/>
+    </row>
+    <row r="758" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F758" s="14"/>
+    </row>
+    <row r="759" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F759" s="14"/>
+    </row>
+    <row r="760" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F760" s="14"/>
+    </row>
+    <row r="761" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F761" s="14"/>
+    </row>
+    <row r="762" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F762" s="14"/>
+    </row>
+    <row r="763" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F763" s="14"/>
+    </row>
+    <row r="764" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F764" s="14"/>
+    </row>
+    <row r="765" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F765" s="14"/>
+    </row>
+    <row r="766" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F766" s="14"/>
+    </row>
+    <row r="767" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F767" s="14"/>
+    </row>
+    <row r="768" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F768" s="14"/>
+    </row>
+    <row r="769" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F769" s="14"/>
+    </row>
+    <row r="770" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F770" s="14"/>
+    </row>
+    <row r="771" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F771" s="14"/>
+    </row>
+    <row r="772" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F772" s="14"/>
+    </row>
+    <row r="773" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F773" s="14"/>
+    </row>
+    <row r="774" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F774" s="14"/>
+    </row>
+    <row r="775" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F775" s="14"/>
+    </row>
+    <row r="776" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F776" s="14"/>
+    </row>
+    <row r="777" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F777" s="14"/>
+    </row>
+    <row r="778" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F778" s="14"/>
+    </row>
+    <row r="779" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F779" s="14"/>
+    </row>
+    <row r="780" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F780" s="14"/>
+    </row>
+    <row r="781" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F781" s="14"/>
+    </row>
+    <row r="782" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F782" s="14"/>
+    </row>
+    <row r="783" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F783" s="14"/>
+    </row>
+    <row r="784" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F784" s="14"/>
+    </row>
+    <row r="785" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F785" s="14"/>
+    </row>
+    <row r="786" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F786" s="14"/>
+    </row>
+    <row r="787" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F787" s="14"/>
+    </row>
+    <row r="788" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F788" s="14"/>
+    </row>
+    <row r="789" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F789" s="14"/>
+    </row>
+    <row r="790" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F790" s="14"/>
+    </row>
+    <row r="791" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F791" s="14"/>
+    </row>
+    <row r="792" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F792" s="14"/>
+    </row>
+    <row r="793" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F793" s="14"/>
+    </row>
+    <row r="794" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F794" s="14"/>
+    </row>
+    <row r="795" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F795" s="14"/>
+    </row>
+    <row r="796" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F796" s="14"/>
+    </row>
+    <row r="797" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F797" s="14"/>
+    </row>
+    <row r="798" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F798" s="14"/>
+    </row>
+    <row r="799" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F799" s="14"/>
+    </row>
+    <row r="800" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F800" s="14"/>
+    </row>
+    <row r="801" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F801" s="14"/>
+    </row>
+    <row r="802" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F802" s="14"/>
+    </row>
+    <row r="803" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F803" s="14"/>
+    </row>
+    <row r="804" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F804" s="14"/>
+    </row>
+    <row r="805" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F805" s="14"/>
+    </row>
+    <row r="806" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F806" s="14"/>
+    </row>
+    <row r="807" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F807" s="14"/>
+    </row>
+    <row r="808" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F808" s="14"/>
+    </row>
+    <row r="809" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F809" s="14"/>
+    </row>
+    <row r="810" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F810" s="14"/>
+    </row>
+    <row r="811" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F811" s="14"/>
+    </row>
+    <row r="812" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F812" s="14"/>
+    </row>
+    <row r="813" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F813" s="14"/>
+    </row>
+    <row r="814" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F814" s="14"/>
+    </row>
+    <row r="815" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F815" s="14"/>
+    </row>
+    <row r="816" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F816" s="14"/>
+    </row>
+    <row r="817" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F817" s="14"/>
+    </row>
+    <row r="818" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F818" s="14"/>
+    </row>
+    <row r="819" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F819" s="14"/>
+    </row>
+    <row r="820" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F820" s="14"/>
+    </row>
+    <row r="821" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F821" s="14"/>
+    </row>
+    <row r="822" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F822" s="14"/>
+    </row>
+    <row r="823" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F823" s="14"/>
+    </row>
+    <row r="824" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F824" s="14"/>
+    </row>
+    <row r="825" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F825" s="14"/>
+    </row>
+    <row r="826" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F826" s="14"/>
+    </row>
+    <row r="827" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F827" s="14"/>
+    </row>
+    <row r="828" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F828" s="14"/>
+    </row>
+    <row r="829" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F829" s="14"/>
+    </row>
+    <row r="830" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F830" s="14"/>
+    </row>
+    <row r="831" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F831" s="14"/>
+    </row>
+    <row r="832" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F832" s="14"/>
+    </row>
+    <row r="833" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F833" s="14"/>
+    </row>
+    <row r="834" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F834" s="14"/>
+    </row>
+    <row r="835" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F835" s="14"/>
+    </row>
+    <row r="836" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F836" s="14"/>
+    </row>
+    <row r="837" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F837" s="14"/>
+    </row>
+    <row r="838" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F838" s="14"/>
+    </row>
+    <row r="839" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F839" s="14"/>
+    </row>
+    <row r="840" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F840" s="14"/>
+    </row>
+    <row r="841" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F841" s="14"/>
+    </row>
+    <row r="842" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F842" s="14"/>
+    </row>
+    <row r="843" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F843" s="14"/>
+    </row>
+    <row r="844" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F844" s="14"/>
+    </row>
+    <row r="845" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F845" s="14"/>
+    </row>
+    <row r="846" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F846" s="14"/>
+    </row>
+    <row r="847" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F847" s="14"/>
+    </row>
+    <row r="848" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F848" s="14"/>
+    </row>
+    <row r="849" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F849" s="14"/>
+    </row>
+    <row r="850" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F850" s="14"/>
+    </row>
+    <row r="851" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F851" s="14"/>
+    </row>
+    <row r="852" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F852" s="14"/>
+    </row>
+    <row r="853" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F853" s="14"/>
+    </row>
+    <row r="854" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F854" s="14"/>
+    </row>
+    <row r="855" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F855" s="14"/>
+    </row>
+    <row r="856" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F856" s="14"/>
+    </row>
+    <row r="857" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F857" s="14"/>
+    </row>
+    <row r="858" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F858" s="14"/>
+    </row>
+    <row r="859" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F859" s="14"/>
+    </row>
+    <row r="860" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F860" s="14"/>
+    </row>
+    <row r="861" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F861" s="14"/>
+    </row>
+    <row r="862" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F862" s="14"/>
+    </row>
+    <row r="863" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F863" s="14"/>
+    </row>
+    <row r="864" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F864" s="14"/>
+    </row>
+    <row r="865" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F865" s="14"/>
+    </row>
+    <row r="866" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F866" s="14"/>
+    </row>
+    <row r="867" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F867" s="14"/>
+    </row>
+    <row r="868" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F868" s="14"/>
+    </row>
+    <row r="869" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F869" s="14"/>
+    </row>
+    <row r="870" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F870" s="14"/>
+    </row>
+    <row r="871" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F871" s="14"/>
+    </row>
+    <row r="872" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F872" s="14"/>
+    </row>
+    <row r="873" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F873" s="14"/>
+    </row>
+    <row r="874" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F874" s="14"/>
+    </row>
+    <row r="875" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F875" s="14"/>
+    </row>
+    <row r="876" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F876" s="14"/>
+    </row>
+    <row r="877" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F877" s="14"/>
+    </row>
+    <row r="878" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F878" s="14"/>
+    </row>
+    <row r="879" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F879" s="14"/>
+    </row>
+    <row r="880" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F880" s="14"/>
+    </row>
+    <row r="881" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F881" s="14"/>
+    </row>
+    <row r="882" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F882" s="14"/>
+    </row>
+    <row r="883" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F883" s="14"/>
+    </row>
+    <row r="884" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F884" s="14"/>
+    </row>
+    <row r="885" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F885" s="14"/>
+    </row>
+    <row r="886" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F886" s="14"/>
+    </row>
+    <row r="887" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F887" s="14"/>
+    </row>
+    <row r="888" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F888" s="14"/>
+    </row>
+    <row r="889" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F889" s="14"/>
+    </row>
+    <row r="890" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F890" s="14"/>
+    </row>
+    <row r="891" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F891" s="14"/>
+    </row>
+    <row r="892" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F892" s="14"/>
+    </row>
+    <row r="893" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F893" s="14"/>
+    </row>
+    <row r="894" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F894" s="14"/>
+    </row>
+    <row r="895" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F895" s="14"/>
+    </row>
+    <row r="896" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F896" s="14"/>
+    </row>
+    <row r="897" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F897" s="14"/>
+    </row>
+    <row r="898" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F898" s="14"/>
+    </row>
+    <row r="899" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F899" s="14"/>
+    </row>
+    <row r="900" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F900" s="14"/>
+    </row>
+    <row r="901" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F901" s="14"/>
+    </row>
+    <row r="902" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F902" s="14"/>
+    </row>
+    <row r="903" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F903" s="14"/>
+    </row>
+    <row r="904" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F904" s="14"/>
+    </row>
+    <row r="905" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F905" s="14"/>
+    </row>
+    <row r="906" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F906" s="14"/>
+    </row>
+    <row r="907" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F907" s="14"/>
+    </row>
+    <row r="908" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F908" s="14"/>
+    </row>
+    <row r="909" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F909" s="14"/>
+    </row>
+    <row r="910" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F910" s="14"/>
+    </row>
+    <row r="911" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F911" s="14"/>
+    </row>
+    <row r="912" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F912" s="14"/>
+    </row>
+    <row r="913" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F913" s="14"/>
+    </row>
+    <row r="914" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F914" s="14"/>
+    </row>
+    <row r="915" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F915" s="14"/>
+    </row>
+    <row r="916" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F916" s="14"/>
+    </row>
+    <row r="917" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F917" s="14"/>
+    </row>
+    <row r="918" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F918" s="14"/>
+    </row>
+    <row r="919" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F919" s="14"/>
+    </row>
+    <row r="920" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F920" s="14"/>
+    </row>
+    <row r="921" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F921" s="14"/>
+    </row>
+    <row r="922" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F922" s="14"/>
+    </row>
+    <row r="923" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F923" s="14"/>
+    </row>
+    <row r="924" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F924" s="14"/>
+    </row>
+    <row r="925" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F925" s="14"/>
+    </row>
+    <row r="926" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F926" s="14"/>
+    </row>
+    <row r="927" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F927" s="14"/>
+    </row>
+    <row r="928" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F928" s="14"/>
+    </row>
+    <row r="929" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F929" s="14"/>
+    </row>
+    <row r="930" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F930" s="14"/>
+    </row>
+    <row r="931" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F931" s="14"/>
+    </row>
+    <row r="932" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F932" s="14"/>
+    </row>
+    <row r="933" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F933" s="14"/>
+    </row>
+    <row r="934" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F934" s="14"/>
+    </row>
+    <row r="935" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F935" s="14"/>
+    </row>
+    <row r="936" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F936" s="14"/>
+    </row>
+    <row r="937" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F937" s="14"/>
+    </row>
+    <row r="938" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F938" s="14"/>
+    </row>
+    <row r="939" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F939" s="14"/>
+    </row>
+    <row r="940" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F940" s="14"/>
+    </row>
+    <row r="941" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F941" s="14"/>
+    </row>
+    <row r="942" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F942" s="14"/>
+    </row>
+    <row r="943" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F943" s="14"/>
+    </row>
+    <row r="944" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F944" s="14"/>
+    </row>
+    <row r="945" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F945" s="14"/>
+    </row>
+    <row r="946" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F946" s="14"/>
+    </row>
+    <row r="947" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F947" s="14"/>
+    </row>
+    <row r="948" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F948" s="14"/>
+    </row>
+    <row r="949" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F949" s="14"/>
+    </row>
+    <row r="950" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F950" s="14"/>
+    </row>
+    <row r="951" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F951" s="14"/>
+    </row>
+    <row r="952" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F952" s="14"/>
+    </row>
+    <row r="953" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F953" s="14"/>
+    </row>
+    <row r="954" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F954" s="14"/>
+    </row>
+    <row r="955" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F955" s="14"/>
+    </row>
+    <row r="956" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F956" s="14"/>
+    </row>
+    <row r="957" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F957" s="14"/>
+    </row>
+    <row r="958" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F958" s="14"/>
+    </row>
+    <row r="959" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F959" s="14"/>
+    </row>
+    <row r="960" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F960" s="14"/>
+    </row>
+    <row r="961" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F961" s="14"/>
+    </row>
+    <row r="962" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F962" s="14"/>
+    </row>
+    <row r="963" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F963" s="14"/>
+    </row>
+    <row r="964" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F964" s="14"/>
+    </row>
+    <row r="965" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F965" s="14"/>
+    </row>
+    <row r="966" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F966" s="14"/>
+    </row>
+    <row r="967" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F967" s="14"/>
+    </row>
+    <row r="968" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F968" s="14"/>
+    </row>
+    <row r="969" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F969" s="14"/>
+    </row>
+    <row r="970" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F970" s="14"/>
+    </row>
+    <row r="971" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F971" s="14"/>
+    </row>
+    <row r="972" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F972" s="14"/>
+    </row>
+    <row r="973" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F973" s="14"/>
+    </row>
+    <row r="974" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F974" s="14"/>
+    </row>
+    <row r="975" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F975" s="14"/>
+    </row>
+    <row r="976" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F976" s="14"/>
+    </row>
+    <row r="977" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F977" s="14"/>
+    </row>
+    <row r="978" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F978" s="14"/>
+    </row>
+    <row r="979" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F979" s="14"/>
+    </row>
+    <row r="980" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F980" s="14"/>
+    </row>
+    <row r="981" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F981" s="14"/>
+    </row>
+    <row r="982" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F982" s="14"/>
+    </row>
+    <row r="983" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F983" s="14"/>
+    </row>
+    <row r="984" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F984" s="14"/>
+    </row>
+    <row r="985" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F985" s="14"/>
+    </row>
+    <row r="986" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F986" s="14"/>
+    </row>
+    <row r="987" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F987" s="14"/>
+    </row>
+    <row r="988" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F988" s="14"/>
+    </row>
+    <row r="989" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F989" s="14"/>
+    </row>
+    <row r="990" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F990" s="14"/>
+    </row>
+    <row r="991" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F991" s="14"/>
+    </row>
+    <row r="992" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F992" s="14"/>
+    </row>
+    <row r="993" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F993" s="14"/>
+    </row>
+    <row r="994" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F994" s="14"/>
+    </row>
+    <row r="995" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F995" s="14"/>
+    </row>
+    <row r="996" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F996" s="14"/>
+    </row>
+    <row r="997" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F997" s="14"/>
+    </row>
+    <row r="998" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F998" s="14"/>
+    </row>
+    <row r="999" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F999" s="14"/>
+    </row>
+    <row r="1000" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F1000" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
